--- a/Schedule_maker/static/xlsx/schedule.xlsx
+++ b/Schedule_maker/static/xlsx/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="72">
   <si>
     <t>День</t>
   </si>
@@ -74,34 +74,61 @@
     <t>10702422</t>
   </si>
   <si>
+    <t>Алгоритмы и структуры данных</t>
+  </si>
+  <si>
+    <t>Alexandra Lambert</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Sharon Wright</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>Jacob Simon</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>Katherine Dickerson</t>
+  </si>
+  <si>
     <t>I.T.</t>
   </si>
   <si>
-    <t>Ronald Diaz PhD</t>
-  </si>
-  <si>
-    <t>107</t>
+    <t>Margaret Frey</t>
   </si>
   <si>
     <t>biology</t>
   </si>
   <si>
-    <t>Shaun Williams</t>
+    <t>Cory Parks</t>
   </si>
   <si>
-    <t>507</t>
+    <t>105</t>
   </si>
   <si>
-    <t>geography</t>
+    <t>325</t>
   </si>
   <si>
-    <t>Kristen Dixon</t>
+    <t>Jeffery Long</t>
   </si>
   <si>
-    <t>306</t>
+    <t>Nathan Morgan</t>
   </si>
   <si>
-    <t>Denise Lynn</t>
+    <t>313</t>
+  </si>
+  <si>
+    <t>Jose Schmidt</t>
   </si>
   <si>
     <t>329</t>
@@ -110,19 +137,7 @@
     <t>326</t>
   </si>
   <si>
-    <t>science</t>
-  </si>
-  <si>
-    <t>Michael Townsend</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>Алгоритмы и структуры данных</t>
-  </si>
-  <si>
-    <t>Marcus Leonard</t>
+    <t>Samantha Davis</t>
   </si>
   <si>
     <t>407</t>
@@ -131,127 +146,88 @@
     <t>420</t>
   </si>
   <si>
-    <t>313</t>
+    <t>Jesse Smith</t>
+  </si>
+  <si>
+    <t>Kim Rodgers</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>Belinda Powers</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Julie Olson</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>Alicia Lane DDS</t>
+  </si>
+  <si>
+    <t>P.E.</t>
+  </si>
+  <si>
+    <t>Austin Robbins</t>
+  </si>
+  <si>
+    <t>Cody White</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>George Cruz</t>
+    <t>Russell Lewis</t>
   </si>
   <si>
-    <t>327</t>
+    <t>Joshua Espinoza</t>
   </si>
   <si>
-    <t>Karen Haynes</t>
+    <t>Shirley Chandler</t>
   </si>
   <si>
-    <t>math</t>
+    <t>107</t>
   </si>
   <si>
-    <t>Katherine Olson</t>
+    <t xml:space="preserve"> 10701122 10701222 10701322</t>
   </si>
   <si>
-    <t>music</t>
+    <t xml:space="preserve"> 10702322 10702422</t>
   </si>
   <si>
-    <t>Christine Lee</t>
+    <t xml:space="preserve"> 10702322</t>
   </si>
   <si>
-    <t>Nathan Tucker</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>Darren Hernandez</t>
-  </si>
-  <si>
-    <t>P.E.</t>
-  </si>
-  <si>
-    <t>Troy Jacobson</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>Jasmine Fisher</t>
-  </si>
-  <si>
-    <t>Heidi Walters</t>
-  </si>
-  <si>
-    <t>Justin Garcia</t>
-  </si>
-  <si>
-    <t>Maria Stewart</t>
-  </si>
-  <si>
-    <t>Charles Williams</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Anthony Fowler</t>
-  </si>
-  <si>
-    <t>Victoria Jackson</t>
-  </si>
-  <si>
-    <t>Mr. Gregory Trevino</t>
+    <t xml:space="preserve"> 10701122</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702222</t>
   </si>
   <si>
+    <t xml:space="preserve"> 10702422</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10702122 10702222</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10702322</t>
+    <t xml:space="preserve"> 10701222</t>
   </si>
   <si>
     <t xml:space="preserve"> 10701322</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10702322 10702422 10701322</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122 10701222 10701322 10702122 10702422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122 10701122</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701222 10701222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122 10701222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701222</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 10702122</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702222 10702422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122 10701222 10701322 10702322</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702322 10702422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122 10701222 10701322</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702122 10702222 10702322 10702422</t>
@@ -374,22 +350,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,26 +819,22 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -875,352 +847,380 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="5"/>
+      <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="5"/>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="5"/>
+      <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="5"/>
+      <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="D22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="5"/>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="5"/>
+      <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
       <c r="Q24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="5"/>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="5"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="5"/>
+      <c r="R26" s="4"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="C27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="5"/>
+      <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
       <c r="Q28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R28" s="5"/>
+      <c r="R28" s="4"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="5"/>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="5"/>
+      <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="5"/>
+      <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
@@ -1238,23 +1238,21 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="4" t="s">
+      <c r="M32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1271,338 +1269,388 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="5"/>
+      <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="7" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="8"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="5"/>
+      <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P35" s="8"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="5"/>
+      <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="C36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="10"/>
       <c r="Q36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R36" s="5"/>
+      <c r="R36" s="4"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" s="11"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="5"/>
+      <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="12" t="s">
+      <c r="C39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12" t="s">
+      <c r="N39" s="12"/>
+      <c r="O39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+      <c r="P39" s="12"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="5"/>
+      <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="10"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R40" s="5"/>
+      <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="5"/>
+      <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="11"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="5"/>
+      <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="5"/>
+      <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
       <c r="Q44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R44" s="5"/>
+      <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="5"/>
+      <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="5"/>
+      <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="5"/>
+      <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2" t="s">
@@ -1612,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1620,23 +1668,21 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P48" s="10"/>
+      <c r="M48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
       <c r="Q48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1653,344 +1699,382 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="5"/>
+      <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P50" s="11"/>
+      <c r="C50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="5"/>
+      <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" s="12"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="5"/>
+      <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M52" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N52" s="10"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
+      <c r="O52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="7"/>
       <c r="Q52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R52" s="5"/>
+      <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="5"/>
+      <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="M54" s="11" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="N54" s="11"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
+      <c r="O54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="9"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="5"/>
+      <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L55" s="12"/>
       <c r="M55" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N55" s="12"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
+      <c r="O55" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" s="9"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="5"/>
+      <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="10"/>
       <c r="Q56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R56" s="5"/>
+      <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="5"/>
+      <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" s="11"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="5"/>
+      <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L59" s="12"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" s="12"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="5"/>
+      <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
       <c r="Q60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R60" s="5"/>
+      <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="5"/>
+      <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="5"/>
+      <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="5"/>
+      <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
@@ -1999,28 +2083,22 @@
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="10"/>
+      <c r="C64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -2028,19 +2106,19 @@
       <c r="Q64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R64" s="5" t="s">
+      <c r="R64" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -2050,341 +2128,359 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="5"/>
+      <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
+      <c r="C66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="5"/>
+      <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="5"/>
+      <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="C68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="7"/>
       <c r="I68" s="10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L68" s="10"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P68" s="10"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68" s="7"/>
       <c r="Q68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R68" s="5"/>
+      <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="5"/>
+      <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="C70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="9"/>
       <c r="I70" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L70" s="11"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P70" s="11"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="9"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="5"/>
+      <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
+      <c r="C71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="9"/>
       <c r="I71" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L71" s="12"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P71" s="12"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P71" s="9"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="5"/>
+      <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
       <c r="Q72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="5"/>
+      <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="5"/>
+      <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="5"/>
+      <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L75" s="12"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="5"/>
+      <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
       <c r="Q76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R76" s="5"/>
+      <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="5"/>
+      <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="5"/>
+      <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="5"/>
+      <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
@@ -2393,386 +2489,398 @@
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="4"/>
+      <c r="C80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
+      <c r="M80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P80" s="10"/>
       <c r="Q80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R80" s="5" t="s">
+      <c r="R80" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="5"/>
+      <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="7" t="s">
+      <c r="C82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
+      <c r="N82" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P82" s="11"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="5"/>
+      <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
+      <c r="C83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P83" s="12"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="5"/>
+      <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="10" t="s">
+      <c r="C84" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="7"/>
       <c r="K84" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L84" s="10"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
       <c r="Q84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R84" s="5"/>
+      <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="5"/>
+      <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="11" t="s">
+      <c r="C86" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" s="9"/>
       <c r="K86" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L86" s="11"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="5"/>
+      <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="I87" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" s="9"/>
       <c r="K87" s="12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="L87" s="12"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="5"/>
+      <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
       <c r="Q88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R88" s="5"/>
+      <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="5"/>
+      <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="5"/>
+      <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="5"/>
+      <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
       <c r="Q92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R92" s="5"/>
+      <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="5"/>
+      <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="5"/>
+      <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="5"/>
+      <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="2" t="s">
@@ -2781,377 +2889,377 @@
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L96" s="4"/>
-      <c r="M96" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R96" s="5" t="s">
+      <c r="R96" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="5"/>
+      <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L98" s="8"/>
-      <c r="M98" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
+      <c r="C98" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="5"/>
+      <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L99" s="8"/>
-      <c r="M99" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
+      <c r="C99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="5"/>
+      <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="10" t="s">
+      <c r="C100" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J100" s="10"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
       <c r="Q100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R100" s="5"/>
+      <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="5"/>
+      <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="11" t="s">
+      <c r="C102" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L102" s="11"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" s="11"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="5"/>
+      <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="12" t="s">
+      <c r="C103" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L103" s="12"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J103" s="12"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="5"/>
+      <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
       <c r="Q104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R104" s="5"/>
+      <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="5"/>
+      <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
       <c r="Q106" s="1"/>
-      <c r="R106" s="5"/>
+      <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="5"/>
+      <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
       <c r="Q108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R108" s="5"/>
+      <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
       <c r="Q109" s="1"/>
-      <c r="R109" s="5"/>
+      <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="5"/>
+      <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="5"/>
+      <c r="R111" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="640">
+  <mergeCells count="562">
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="A16:A31"/>
@@ -3232,28 +3340,32 @@
     <mergeCell ref="C48:H49"/>
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C64:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C80:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C96:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C56:C57"/>
@@ -3276,19 +3388,8 @@
     <mergeCell ref="C94:C95"/>
     <mergeCell ref="C108:C109"/>
     <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="D56:D57"/>
@@ -3311,27 +3412,23 @@
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="D108:D109"/>
     <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E96:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E68:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E84:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E100:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="E56:E57"/>
@@ -3354,19 +3451,8 @@
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="E108:E109"/>
     <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="F56:F57"/>
@@ -3389,32 +3475,25 @@
     <mergeCell ref="F94:F95"/>
     <mergeCell ref="F108:F109"/>
     <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G52:G53"/>
     <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G84:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G100:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="G88:G89"/>
@@ -3433,22 +3512,14 @@
     <mergeCell ref="G94:G95"/>
     <mergeCell ref="G108:G109"/>
     <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H58:H59"/>
     <mergeCell ref="H72:H73"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="H88:H89"/>
@@ -3467,7 +3538,9 @@
     <mergeCell ref="H94:H95"/>
     <mergeCell ref="H108:H109"/>
     <mergeCell ref="H110:H111"/>
-    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I16:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="I32:L33"/>
     <mergeCell ref="I34:L34"/>
     <mergeCell ref="I35:L35"/>
@@ -3480,32 +3553,34 @@
     <mergeCell ref="I80:L81"/>
     <mergeCell ref="I82:L82"/>
     <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I96:P97"/>
+    <mergeCell ref="I98:P98"/>
+    <mergeCell ref="I99:P99"/>
+    <mergeCell ref="I20:P21"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="I36:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I52:I53"/>
     <mergeCell ref="I68:J69"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I84:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I100:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="I56:I57"/>
     <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I72:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
     <mergeCell ref="I88:I89"/>
     <mergeCell ref="I90:I91"/>
     <mergeCell ref="I104:I105"/>
@@ -3522,22 +3597,12 @@
     <mergeCell ref="I94:I95"/>
     <mergeCell ref="I108:I109"/>
     <mergeCell ref="I110:I111"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
     <mergeCell ref="J56:J57"/>
     <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J75"/>
     <mergeCell ref="J88:J89"/>
     <mergeCell ref="J90:J91"/>
     <mergeCell ref="J104:J105"/>
@@ -3554,32 +3619,26 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="J108:J109"/>
     <mergeCell ref="J110:J111"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K52:K53"/>
     <mergeCell ref="K68:L69"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="K84:L85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K100:L101"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
     <mergeCell ref="K88:K89"/>
     <mergeCell ref="K90:K91"/>
     <mergeCell ref="K104:K105"/>
@@ -3596,22 +3655,11 @@
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="K108:K109"/>
     <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="L102:L103"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L74:L75"/>
     <mergeCell ref="L88:L89"/>
     <mergeCell ref="L90:L91"/>
     <mergeCell ref="L104:L105"/>
@@ -3628,25 +3676,22 @@
     <mergeCell ref="L94:L95"/>
     <mergeCell ref="L108:L109"/>
     <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M16:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M48:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
     <mergeCell ref="M64:P65"/>
     <mergeCell ref="M66:P66"/>
     <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M80:P81"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="M96:P97"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="M99:P99"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M36:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="M52:N53"/>
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="M55:N55"/>
@@ -3658,8 +3703,9 @@
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="M56:M57"/>
     <mergeCell ref="M58:M59"/>
     <mergeCell ref="M72:M73"/>
@@ -3680,12 +3726,7 @@
     <mergeCell ref="M94:M95"/>
     <mergeCell ref="M108:M109"/>
     <mergeCell ref="M110:M111"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N80:N81"/>
     <mergeCell ref="N68:N69"/>
     <mergeCell ref="N70:N71"/>
     <mergeCell ref="N84:N85"/>
@@ -3694,8 +3735,6 @@
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
     <mergeCell ref="N56:N57"/>
     <mergeCell ref="N58:N59"/>
     <mergeCell ref="N72:N73"/>
@@ -3716,18 +3755,14 @@
     <mergeCell ref="N94:N95"/>
     <mergeCell ref="N108:N109"/>
     <mergeCell ref="N110:N111"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O48:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="O80:P81"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O36:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
     <mergeCell ref="O52:O53"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="O68:P69"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O68:O69"/>
     <mergeCell ref="O84:O85"/>
     <mergeCell ref="O86:O87"/>
     <mergeCell ref="O100:O101"/>
@@ -3736,8 +3771,9 @@
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="O42:O43"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
     <mergeCell ref="O72:O73"/>
     <mergeCell ref="O74:O75"/>
     <mergeCell ref="O88:O89"/>
@@ -3756,14 +3792,10 @@
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="O108:O109"/>
     <mergeCell ref="O110:O111"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="P38:P39"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="P54:P55"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="P70:P71"/>
     <mergeCell ref="P84:P85"/>
     <mergeCell ref="P86:P87"/>
     <mergeCell ref="P100:P101"/>
@@ -3772,8 +3804,6 @@
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P40:P41"/>
     <mergeCell ref="P42:P43"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="P58:P59"/>
     <mergeCell ref="P72:P73"/>
     <mergeCell ref="P74:P75"/>
     <mergeCell ref="P88:P89"/>
@@ -3799,18 +3829,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A11:AT111"/>
+  <dimension ref="A11:AR111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="45" width="20.7109375" customWidth="1"/>
-    <col min="46" max="46" width="10.7109375" customWidth="1"/>
-    <col min="47" max="101" width="20.7109375" customWidth="1"/>
+    <col min="2" max="43" width="20.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" customWidth="1"/>
+    <col min="45" max="101" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3818,27 +3848,27 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
@@ -3846,69 +3876,65 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AT11" s="1" t="s">
+      <c r="AR11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:44">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3953,10 +3979,8 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-    </row>
-    <row r="13" spans="1:46">
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4001,10 +4025,8 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-    </row>
-    <row r="14" spans="1:46">
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4049,10 +4071,8 @@
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-    </row>
-    <row r="15" spans="1:46">
+    </row>
+    <row r="15" spans="1:44">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4097,10 +4117,8 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-    </row>
-    <row r="16" spans="1:46">
+    </row>
+    <row r="16" spans="1:44">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -4108,16 +4126,18 @@
         <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -4125,9 +4145,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4137,9 +4155,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AA16" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -4149,26 +4165,20 @@
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
-      <c r="AK16" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
-      <c r="AM16" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AT16" s="5" t="s">
+      <c r="AR16" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:44">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -4211,16 +4221,14 @@
       <c r="AN17" s="10"/>
       <c r="AO17" s="10"/>
       <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="5"/>
-    </row>
-    <row r="18" spans="1:46">
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="4"/>
+    </row>
+    <row r="18" spans="1:44">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
@@ -4229,7 +4237,9 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -4237,9 +4247,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
@@ -4249,9 +4257,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
-      <c r="AA18" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
@@ -4261,22 +4267,16 @@
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="12"/>
-      <c r="AK18" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
-      <c r="AM18" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
       <c r="AO18" s="12"/>
       <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="5"/>
-    </row>
-    <row r="19" spans="1:46">
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="4"/>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="12"/>
@@ -4319,39 +4319,39 @@
       <c r="AN19" s="12"/>
       <c r="AO19" s="12"/>
       <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="5"/>
-    </row>
-    <row r="20" spans="1:46">
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="4"/>
+    </row>
+    <row r="20" spans="1:44">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="S20" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -4365,28 +4365,26 @@
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
+      <c r="AG20" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
+      <c r="AK20" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AL20" s="10"/>
-      <c r="AM20" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
-      <c r="AO20" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="1" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT20" s="5"/>
-    </row>
-    <row r="21" spans="1:46">
+      <c r="AR20" s="4"/>
+    </row>
+    <row r="21" spans="1:44">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -4429,37 +4427,37 @@
       <c r="AN21" s="10"/>
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="5"/>
-    </row>
-    <row r="22" spans="1:46">
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="4"/>
+    </row>
+    <row r="22" spans="1:44">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="S22" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
@@ -4473,26 +4471,24 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
+      <c r="AG22" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
+      <c r="AK22" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="AL22" s="12"/>
-      <c r="AM22" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
-      <c r="AO22" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="AO22" s="12"/>
       <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="5"/>
-    </row>
-    <row r="23" spans="1:46">
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="4"/>
+    </row>
+    <row r="23" spans="1:44">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="12"/>
@@ -4535,12 +4531,10 @@
       <c r="AN23" s="12"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="5"/>
-    </row>
-    <row r="24" spans="1:46">
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="4"/>
+    </row>
+    <row r="24" spans="1:44">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -4551,7 +4545,9 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4559,7 +4555,9 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
@@ -4581,18 +4579,20 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
+      <c r="AM24" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
+      <c r="AO24" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="1" t="s">
+      <c r="AQ24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT24" s="5"/>
-    </row>
-    <row r="25" spans="1:46">
+      <c r="AR24" s="4"/>
+    </row>
+    <row r="25" spans="1:44">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -4635,12 +4635,10 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
       <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="5"/>
-    </row>
-    <row r="26" spans="1:46">
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="4"/>
+    </row>
+    <row r="26" spans="1:44">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="12"/>
@@ -4649,7 +4647,9 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
@@ -4657,7 +4657,9 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="Q26" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
@@ -4679,16 +4681,18 @@
       <c r="AJ26" s="12"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
+      <c r="AM26" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
+      <c r="AO26" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="5"/>
-    </row>
-    <row r="27" spans="1:46">
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="4"/>
+    </row>
+    <row r="27" spans="1:44">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="12"/>
@@ -4731,12 +4735,10 @@
       <c r="AN27" s="12"/>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="5"/>
-    </row>
-    <row r="28" spans="1:46">
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="4"/>
+    </row>
+    <row r="28" spans="1:44">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -4781,14 +4783,12 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="1" t="s">
+      <c r="AQ28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT28" s="5"/>
-    </row>
-    <row r="29" spans="1:46">
+      <c r="AR28" s="4"/>
+    </row>
+    <row r="29" spans="1:44">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -4831,12 +4831,10 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="5"/>
-    </row>
-    <row r="30" spans="1:46">
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="4"/>
+    </row>
+    <row r="30" spans="1:44">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="12"/>
@@ -4879,12 +4877,10 @@
       <c r="AN30" s="12"/>
       <c r="AO30" s="12"/>
       <c r="AP30" s="12"/>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="5"/>
-    </row>
-    <row r="31" spans="1:46">
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="4"/>
+    </row>
+    <row r="31" spans="1:44">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="12"/>
@@ -4927,12 +4923,10 @@
       <c r="AN31" s="12"/>
       <c r="AO31" s="12"/>
       <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="5"/>
-    </row>
-    <row r="32" spans="1:46">
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="4"/>
+    </row>
+    <row r="32" spans="1:44">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -4940,20 +4934,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="M32" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
@@ -4965,9 +4961,7 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
-      <c r="Y32" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -4981,24 +4975,18 @@
       <c r="AJ32" s="10"/>
       <c r="AK32" s="10"/>
       <c r="AL32" s="10"/>
-      <c r="AM32" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AM32" s="10"/>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
       <c r="AP32" s="10"/>
-      <c r="AQ32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR32" s="10"/>
-      <c r="AS32" s="1" t="s">
+      <c r="AQ32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AT32" s="5" t="s">
+      <c r="AR32" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:44">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="10"/>
@@ -5041,29 +5029,29 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
       <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="5"/>
-    </row>
-    <row r="34" spans="1:46">
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="4"/>
+    </row>
+    <row r="34" spans="1:44">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
+      <c r="M34" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -5075,9 +5063,7 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
-      <c r="Y34" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
@@ -5091,20 +5077,14 @@
       <c r="AJ34" s="12"/>
       <c r="AK34" s="12"/>
       <c r="AL34" s="12"/>
-      <c r="AM34" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM34" s="12"/>
       <c r="AN34" s="12"/>
       <c r="AO34" s="12"/>
       <c r="AP34" s="12"/>
-      <c r="AQ34" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="5"/>
-    </row>
-    <row r="35" spans="1:46">
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="4"/>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="12"/>
@@ -5147,39 +5127,41 @@
       <c r="AN35" s="12"/>
       <c r="AO35" s="12"/>
       <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="5"/>
-    </row>
-    <row r="36" spans="1:46">
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="4"/>
+    </row>
+    <row r="36" spans="1:44">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L36" s="10"/>
-      <c r="M36" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
+      <c r="S36" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -5189,30 +5171,32 @@
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
-      <c r="AC36" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="10"/>
       <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
+      <c r="AI36" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
+      <c r="AK36" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AL36" s="10"/>
-      <c r="AM36" s="10"/>
+      <c r="AM36" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AN36" s="10"/>
       <c r="AO36" s="10"/>
       <c r="AP36" s="10"/>
-      <c r="AQ36" s="10"/>
-      <c r="AR36" s="10"/>
-      <c r="AS36" s="1" t="s">
+      <c r="AQ36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT36" s="5"/>
-    </row>
-    <row r="37" spans="1:46">
+      <c r="AR36" s="4"/>
+    </row>
+    <row r="37" spans="1:44">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
@@ -5255,37 +5239,39 @@
       <c r="AN37" s="10"/>
       <c r="AO37" s="10"/>
       <c r="AP37" s="10"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="5"/>
-    </row>
-    <row r="38" spans="1:46">
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="4"/>
+    </row>
+    <row r="38" spans="1:44">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="I38" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="L38" s="12"/>
-      <c r="M38" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
+      <c r="S38" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
@@ -5295,28 +5281,30 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
-      <c r="AC38" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="12"/>
+      <c r="AI38" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ38" s="12"/>
-      <c r="AK38" s="12"/>
+      <c r="AK38" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="AL38" s="12"/>
-      <c r="AM38" s="12"/>
+      <c r="AM38" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="AN38" s="12"/>
       <c r="AO38" s="12"/>
       <c r="AP38" s="12"/>
-      <c r="AQ38" s="12"/>
-      <c r="AR38" s="12"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="5"/>
-    </row>
-    <row r="39" spans="1:46">
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="4"/>
+    </row>
+    <row r="39" spans="1:44">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="12"/>
@@ -5359,12 +5347,10 @@
       <c r="AN39" s="12"/>
       <c r="AO39" s="12"/>
       <c r="AP39" s="12"/>
-      <c r="AQ39" s="12"/>
-      <c r="AR39" s="12"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="5"/>
-    </row>
-    <row r="40" spans="1:46">
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="4"/>
+    </row>
+    <row r="40" spans="1:44">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -5379,7 +5365,9 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="M40" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -5389,15 +5377,21 @@
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
+      <c r="W40" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
+      <c r="Y40" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
+      <c r="AE40" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="AF40" s="10"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
@@ -5409,14 +5403,12 @@
       <c r="AN40" s="10"/>
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="1" t="s">
+      <c r="AQ40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT40" s="5"/>
-    </row>
-    <row r="41" spans="1:46">
+      <c r="AR40" s="4"/>
+    </row>
+    <row r="41" spans="1:44">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="10"/>
@@ -5459,12 +5451,10 @@
       <c r="AN41" s="10"/>
       <c r="AO41" s="10"/>
       <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="5"/>
-    </row>
-    <row r="42" spans="1:46">
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="4"/>
+    </row>
+    <row r="42" spans="1:44">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="12"/>
@@ -5477,7 +5467,9 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
+      <c r="M42" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
@@ -5487,15 +5479,21 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
+      <c r="W42" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
+      <c r="Y42" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
+      <c r="AE42" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="AF42" s="12"/>
       <c r="AG42" s="12"/>
       <c r="AH42" s="12"/>
@@ -5507,12 +5505,10 @@
       <c r="AN42" s="12"/>
       <c r="AO42" s="12"/>
       <c r="AP42" s="12"/>
-      <c r="AQ42" s="12"/>
-      <c r="AR42" s="12"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="5"/>
-    </row>
-    <row r="43" spans="1:46">
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="4"/>
+    </row>
+    <row r="43" spans="1:44">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="12"/>
@@ -5555,12 +5551,10 @@
       <c r="AN43" s="12"/>
       <c r="AO43" s="12"/>
       <c r="AP43" s="12"/>
-      <c r="AQ43" s="12"/>
-      <c r="AR43" s="12"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="5"/>
-    </row>
-    <row r="44" spans="1:46">
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="4"/>
+    </row>
+    <row r="44" spans="1:44">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -5605,14 +5599,12 @@
       <c r="AN44" s="10"/>
       <c r="AO44" s="10"/>
       <c r="AP44" s="10"/>
-      <c r="AQ44" s="10"/>
-      <c r="AR44" s="10"/>
-      <c r="AS44" s="1" t="s">
+      <c r="AQ44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT44" s="5"/>
-    </row>
-    <row r="45" spans="1:46">
+      <c r="AR44" s="4"/>
+    </row>
+    <row r="45" spans="1:44">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="10"/>
@@ -5655,12 +5647,10 @@
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="5"/>
-    </row>
-    <row r="46" spans="1:46">
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="4"/>
+    </row>
+    <row r="46" spans="1:44">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="12"/>
@@ -5703,12 +5693,10 @@
       <c r="AN46" s="12"/>
       <c r="AO46" s="12"/>
       <c r="AP46" s="12"/>
-      <c r="AQ46" s="12"/>
-      <c r="AR46" s="12"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="5"/>
-    </row>
-    <row r="47" spans="1:46">
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="4"/>
+    </row>
+    <row r="47" spans="1:44">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="12"/>
@@ -5751,80 +5739,70 @@
       <c r="AN47" s="12"/>
       <c r="AO47" s="12"/>
       <c r="AP47" s="12"/>
-      <c r="AQ47" s="12"/>
-      <c r="AR47" s="12"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="5"/>
-    </row>
-    <row r="48" spans="1:46">
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="4"/>
+    </row>
+    <row r="48" spans="1:44">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
+      <c r="Q48" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
-      <c r="U48" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U48" s="10"/>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
-      <c r="Y48" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
-      <c r="AE48" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
       <c r="AH48" s="10"/>
       <c r="AI48" s="10"/>
       <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
+      <c r="AK48" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AL48" s="10"/>
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
       <c r="AO48" s="10"/>
       <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="1" t="s">
+      <c r="AQ48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AT48" s="5" t="s">
+      <c r="AR48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:44">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="10"/>
@@ -5867,72 +5845,62 @@
       <c r="AN49" s="10"/>
       <c r="AO49" s="10"/>
       <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="5"/>
-    </row>
-    <row r="50" spans="1:46">
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="4"/>
+    </row>
+    <row r="50" spans="1:44">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
+      <c r="Q50" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="U50" s="12"/>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
-      <c r="Y50" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
       <c r="AD50" s="12"/>
-      <c r="AE50" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
       <c r="AG50" s="12"/>
       <c r="AH50" s="12"/>
       <c r="AI50" s="12"/>
       <c r="AJ50" s="12"/>
-      <c r="AK50" s="12"/>
+      <c r="AK50" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="AL50" s="12"/>
       <c r="AM50" s="12"/>
       <c r="AN50" s="12"/>
       <c r="AO50" s="12"/>
       <c r="AP50" s="12"/>
-      <c r="AQ50" s="12"/>
-      <c r="AR50" s="12"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="5"/>
-    </row>
-    <row r="51" spans="1:46">
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="4"/>
+    </row>
+    <row r="51" spans="1:44">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="12"/>
@@ -5975,47 +5943,53 @@
       <c r="AN51" s="12"/>
       <c r="AO51" s="12"/>
       <c r="AP51" s="12"/>
-      <c r="AQ51" s="12"/>
-      <c r="AR51" s="12"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="5"/>
-    </row>
-    <row r="52" spans="1:46">
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="4"/>
+    </row>
+    <row r="52" spans="1:44">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
+      <c r="S52" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
+      <c r="Y52" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
+      <c r="AA52" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
@@ -6025,22 +5999,20 @@
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10"/>
-      <c r="AK52" s="10"/>
+      <c r="AK52" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AL52" s="10"/>
       <c r="AM52" s="10"/>
       <c r="AN52" s="10"/>
       <c r="AO52" s="10"/>
       <c r="AP52" s="10"/>
-      <c r="AQ52" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR52" s="10"/>
-      <c r="AS52" s="1" t="s">
+      <c r="AQ52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT52" s="5"/>
-    </row>
-    <row r="53" spans="1:46">
+      <c r="AR52" s="4"/>
+    </row>
+    <row r="53" spans="1:44">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -6083,45 +6055,51 @@
       <c r="AN53" s="10"/>
       <c r="AO53" s="10"/>
       <c r="AP53" s="10"/>
-      <c r="AQ53" s="10"/>
-      <c r="AR53" s="10"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="5"/>
-    </row>
-    <row r="54" spans="1:46">
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="4"/>
+    </row>
+    <row r="54" spans="1:44">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
-      <c r="O54" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
+      <c r="S54" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
+      <c r="Y54" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
+      <c r="AA54" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
@@ -6131,20 +6109,18 @@
       <c r="AH54" s="12"/>
       <c r="AI54" s="12"/>
       <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
+      <c r="AK54" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AL54" s="12"/>
       <c r="AM54" s="12"/>
       <c r="AN54" s="12"/>
       <c r="AO54" s="12"/>
       <c r="AP54" s="12"/>
-      <c r="AQ54" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR54" s="12"/>
-      <c r="AS54" s="1"/>
-      <c r="AT54" s="5"/>
-    </row>
-    <row r="55" spans="1:46">
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="4"/>
+    </row>
+    <row r="55" spans="1:44">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="12"/>
@@ -6187,12 +6163,10 @@
       <c r="AN55" s="12"/>
       <c r="AO55" s="12"/>
       <c r="AP55" s="12"/>
-      <c r="AQ55" s="12"/>
-      <c r="AR55" s="12"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="5"/>
-    </row>
-    <row r="56" spans="1:46">
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="4"/>
+    </row>
+    <row r="56" spans="1:44">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -6217,11 +6191,15 @@
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
+      <c r="W56" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
+      <c r="AA56" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
@@ -6235,16 +6213,16 @@
       <c r="AL56" s="10"/>
       <c r="AM56" s="10"/>
       <c r="AN56" s="10"/>
-      <c r="AO56" s="10"/>
+      <c r="AO56" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AP56" s="10"/>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
-      <c r="AS56" s="1" t="s">
+      <c r="AQ56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT56" s="5"/>
-    </row>
-    <row r="57" spans="1:46">
+      <c r="AR56" s="4"/>
+    </row>
+    <row r="57" spans="1:44">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="10"/>
@@ -6287,12 +6265,10 @@
       <c r="AN57" s="10"/>
       <c r="AO57" s="10"/>
       <c r="AP57" s="10"/>
-      <c r="AQ57" s="10"/>
-      <c r="AR57" s="10"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="5"/>
-    </row>
-    <row r="58" spans="1:46">
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="4"/>
+    </row>
+    <row r="58" spans="1:44">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="12"/>
@@ -6315,11 +6291,15 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
+      <c r="W58" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
+      <c r="AA58" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
       <c r="AD58" s="12"/>
@@ -6333,14 +6313,14 @@
       <c r="AL58" s="12"/>
       <c r="AM58" s="12"/>
       <c r="AN58" s="12"/>
-      <c r="AO58" s="12"/>
+      <c r="AO58" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="AP58" s="12"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="5"/>
-    </row>
-    <row r="59" spans="1:46">
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="4"/>
+    </row>
+    <row r="59" spans="1:44">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="12"/>
@@ -6383,12 +6363,10 @@
       <c r="AN59" s="12"/>
       <c r="AO59" s="12"/>
       <c r="AP59" s="12"/>
-      <c r="AQ59" s="12"/>
-      <c r="AR59" s="12"/>
-      <c r="AS59" s="1"/>
-      <c r="AT59" s="5"/>
-    </row>
-    <row r="60" spans="1:46">
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="4"/>
+    </row>
+    <row r="60" spans="1:44">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>11</v>
@@ -6433,14 +6411,12 @@
       <c r="AN60" s="10"/>
       <c r="AO60" s="10"/>
       <c r="AP60" s="10"/>
-      <c r="AQ60" s="10"/>
-      <c r="AR60" s="10"/>
-      <c r="AS60" s="1" t="s">
+      <c r="AQ60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT60" s="5"/>
-    </row>
-    <row r="61" spans="1:46">
+      <c r="AR60" s="4"/>
+    </row>
+    <row r="61" spans="1:44">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="10"/>
@@ -6483,12 +6459,10 @@
       <c r="AN61" s="10"/>
       <c r="AO61" s="10"/>
       <c r="AP61" s="10"/>
-      <c r="AQ61" s="10"/>
-      <c r="AR61" s="10"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="5"/>
-    </row>
-    <row r="62" spans="1:46">
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="4"/>
+    </row>
+    <row r="62" spans="1:44">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="12"/>
@@ -6531,12 +6505,10 @@
       <c r="AN62" s="12"/>
       <c r="AO62" s="12"/>
       <c r="AP62" s="12"/>
-      <c r="AQ62" s="12"/>
-      <c r="AR62" s="12"/>
-      <c r="AS62" s="1"/>
-      <c r="AT62" s="5"/>
-    </row>
-    <row r="63" spans="1:46">
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="4"/>
+    </row>
+    <row r="63" spans="1:44">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="12"/>
@@ -6579,12 +6551,10 @@
       <c r="AN63" s="12"/>
       <c r="AO63" s="12"/>
       <c r="AP63" s="12"/>
-      <c r="AQ63" s="12"/>
-      <c r="AR63" s="12"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="5"/>
-    </row>
-    <row r="64" spans="1:46">
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="4"/>
+    </row>
+    <row r="64" spans="1:44">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -6593,70 +6563,58 @@
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
-      <c r="K64" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
+      <c r="U64" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
       <c r="X64" s="10"/>
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
+      <c r="AA64" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="AB64" s="10"/>
       <c r="AC64" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
       <c r="AF64" s="10"/>
-      <c r="AG64" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="AG64" s="10"/>
       <c r="AH64" s="10"/>
       <c r="AI64" s="10"/>
       <c r="AJ64" s="10"/>
-      <c r="AK64" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AK64" s="10"/>
       <c r="AL64" s="10"/>
       <c r="AM64" s="10"/>
       <c r="AN64" s="10"/>
       <c r="AO64" s="10"/>
       <c r="AP64" s="10"/>
-      <c r="AQ64" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR64" s="10"/>
-      <c r="AS64" s="1" t="s">
+      <c r="AQ64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AT64" s="5" t="s">
+      <c r="AR64" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:46">
+    <row r="65" spans="1:44">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="10"/>
@@ -6699,76 +6657,62 @@
       <c r="AN65" s="10"/>
       <c r="AO65" s="10"/>
       <c r="AP65" s="10"/>
-      <c r="AQ65" s="10"/>
-      <c r="AR65" s="10"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="5"/>
-    </row>
-    <row r="66" spans="1:46">
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="4"/>
+    </row>
+    <row r="66" spans="1:44">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
-      <c r="K66" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="K66" s="12"/>
       <c r="L66" s="12"/>
-      <c r="M66" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="M66" s="12"/>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
-      <c r="Q66" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
+      <c r="U66" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
+      <c r="AA66" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="AB66" s="12"/>
       <c r="AC66" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
       <c r="AF66" s="12"/>
-      <c r="AG66" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="AG66" s="12"/>
       <c r="AH66" s="12"/>
       <c r="AI66" s="12"/>
       <c r="AJ66" s="12"/>
-      <c r="AK66" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="AK66" s="12"/>
       <c r="AL66" s="12"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="12"/>
       <c r="AO66" s="12"/>
       <c r="AP66" s="12"/>
-      <c r="AQ66" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR66" s="12"/>
-      <c r="AS66" s="1"/>
-      <c r="AT66" s="5"/>
-    </row>
-    <row r="67" spans="1:46">
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="4"/>
+    </row>
+    <row r="67" spans="1:44">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="12"/>
@@ -6811,27 +6755,33 @@
       <c r="AN67" s="12"/>
       <c r="AO67" s="12"/>
       <c r="AP67" s="12"/>
-      <c r="AQ67" s="12"/>
-      <c r="AR67" s="12"/>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="5"/>
-    </row>
-    <row r="68" spans="1:46">
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="4"/>
+    </row>
+    <row r="68" spans="1:44">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
+      <c r="I68" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="K68" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
@@ -6841,19 +6791,17 @@
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
-      <c r="U68" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="U68" s="10"/>
       <c r="V68" s="10"/>
-      <c r="W68" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="W68" s="10"/>
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
+      <c r="AC68" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
       <c r="AF68" s="10"/>
@@ -6867,14 +6815,12 @@
       <c r="AN68" s="10"/>
       <c r="AO68" s="10"/>
       <c r="AP68" s="10"/>
-      <c r="AQ68" s="10"/>
-      <c r="AR68" s="10"/>
-      <c r="AS68" s="1" t="s">
+      <c r="AQ68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT68" s="5"/>
-    </row>
-    <row r="69" spans="1:46">
+      <c r="AR68" s="4"/>
+    </row>
+    <row r="69" spans="1:44">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -6917,25 +6863,31 @@
       <c r="AN69" s="10"/>
       <c r="AO69" s="10"/>
       <c r="AP69" s="10"/>
-      <c r="AQ69" s="10"/>
-      <c r="AR69" s="10"/>
-      <c r="AS69" s="1"/>
-      <c r="AT69" s="5"/>
-    </row>
-    <row r="70" spans="1:46">
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="4"/>
+    </row>
+    <row r="70" spans="1:44">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="E70" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
+      <c r="I70" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="K70" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -6945,19 +6897,17 @@
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
-      <c r="U70" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="U70" s="12"/>
       <c r="V70" s="12"/>
-      <c r="W70" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="W70" s="12"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
+      <c r="AC70" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
       <c r="AF70" s="12"/>
@@ -6971,12 +6921,10 @@
       <c r="AN70" s="12"/>
       <c r="AO70" s="12"/>
       <c r="AP70" s="12"/>
-      <c r="AQ70" s="12"/>
-      <c r="AR70" s="12"/>
-      <c r="AS70" s="1"/>
-      <c r="AT70" s="5"/>
-    </row>
-    <row r="71" spans="1:46">
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="4"/>
+    </row>
+    <row r="71" spans="1:44">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="12"/>
@@ -7019,12 +6967,10 @@
       <c r="AN71" s="12"/>
       <c r="AO71" s="12"/>
       <c r="AP71" s="12"/>
-      <c r="AQ71" s="12"/>
-      <c r="AR71" s="12"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="5"/>
-    </row>
-    <row r="72" spans="1:46">
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="4"/>
+    </row>
+    <row r="72" spans="1:44">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -7065,18 +7011,20 @@
       <c r="AJ72" s="10"/>
       <c r="AK72" s="10"/>
       <c r="AL72" s="10"/>
-      <c r="AM72" s="10"/>
+      <c r="AM72" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AN72" s="10"/>
-      <c r="AO72" s="10"/>
+      <c r="AO72" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AP72" s="10"/>
-      <c r="AQ72" s="10"/>
-      <c r="AR72" s="10"/>
-      <c r="AS72" s="1" t="s">
+      <c r="AQ72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT72" s="5"/>
-    </row>
-    <row r="73" spans="1:46">
+      <c r="AR72" s="4"/>
+    </row>
+    <row r="73" spans="1:44">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="10"/>
@@ -7119,12 +7067,10 @@
       <c r="AN73" s="10"/>
       <c r="AO73" s="10"/>
       <c r="AP73" s="10"/>
-      <c r="AQ73" s="10"/>
-      <c r="AR73" s="10"/>
-      <c r="AS73" s="1"/>
-      <c r="AT73" s="5"/>
-    </row>
-    <row r="74" spans="1:46">
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="4"/>
+    </row>
+    <row r="74" spans="1:44">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="12"/>
@@ -7163,16 +7109,18 @@
       <c r="AJ74" s="12"/>
       <c r="AK74" s="12"/>
       <c r="AL74" s="12"/>
-      <c r="AM74" s="12"/>
+      <c r="AM74" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="AN74" s="12"/>
-      <c r="AO74" s="12"/>
+      <c r="AO74" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="AP74" s="12"/>
-      <c r="AQ74" s="12"/>
-      <c r="AR74" s="12"/>
-      <c r="AS74" s="1"/>
-      <c r="AT74" s="5"/>
-    </row>
-    <row r="75" spans="1:46">
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="4"/>
+    </row>
+    <row r="75" spans="1:44">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="12"/>
@@ -7215,12 +7163,10 @@
       <c r="AN75" s="12"/>
       <c r="AO75" s="12"/>
       <c r="AP75" s="12"/>
-      <c r="AQ75" s="12"/>
-      <c r="AR75" s="12"/>
-      <c r="AS75" s="1"/>
-      <c r="AT75" s="5"/>
-    </row>
-    <row r="76" spans="1:46">
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="4"/>
+    </row>
+    <row r="76" spans="1:44">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>11</v>
@@ -7265,14 +7211,12 @@
       <c r="AN76" s="10"/>
       <c r="AO76" s="10"/>
       <c r="AP76" s="10"/>
-      <c r="AQ76" s="10"/>
-      <c r="AR76" s="10"/>
-      <c r="AS76" s="1" t="s">
+      <c r="AQ76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT76" s="5"/>
-    </row>
-    <row r="77" spans="1:46">
+      <c r="AR76" s="4"/>
+    </row>
+    <row r="77" spans="1:44">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="10"/>
@@ -7315,12 +7259,10 @@
       <c r="AN77" s="10"/>
       <c r="AO77" s="10"/>
       <c r="AP77" s="10"/>
-      <c r="AQ77" s="10"/>
-      <c r="AR77" s="10"/>
-      <c r="AS77" s="1"/>
-      <c r="AT77" s="5"/>
-    </row>
-    <row r="78" spans="1:46">
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="4"/>
+    </row>
+    <row r="78" spans="1:44">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="12"/>
@@ -7363,12 +7305,10 @@
       <c r="AN78" s="12"/>
       <c r="AO78" s="12"/>
       <c r="AP78" s="12"/>
-      <c r="AQ78" s="12"/>
-      <c r="AR78" s="12"/>
-      <c r="AS78" s="1"/>
-      <c r="AT78" s="5"/>
-    </row>
-    <row r="79" spans="1:46">
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="4"/>
+    </row>
+    <row r="79" spans="1:44">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="12"/>
@@ -7411,12 +7351,10 @@
       <c r="AN79" s="12"/>
       <c r="AO79" s="12"/>
       <c r="AP79" s="12"/>
-      <c r="AQ79" s="12"/>
-      <c r="AR79" s="12"/>
-      <c r="AS79" s="1"/>
-      <c r="AT79" s="5"/>
-    </row>
-    <row r="80" spans="1:46">
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="4"/>
+    </row>
+    <row r="80" spans="1:44">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -7424,30 +7362,24 @@
         <v>8</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D80" s="10"/>
-      <c r="E80" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="G80" s="10"/>
       <c r="H80" s="10"/>
-      <c r="I80" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="I80" s="10"/>
       <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
+      <c r="K80" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
@@ -7456,41 +7388,37 @@
       <c r="W80" s="10"/>
       <c r="X80" s="10"/>
       <c r="Y80" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Z80" s="10"/>
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
-      <c r="AE80" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="AE80" s="10"/>
       <c r="AF80" s="10"/>
-      <c r="AG80" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="AG80" s="10"/>
       <c r="AH80" s="10"/>
-      <c r="AI80" s="10"/>
+      <c r="AI80" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ80" s="10"/>
-      <c r="AK80" s="10"/>
+      <c r="AK80" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AL80" s="10"/>
-      <c r="AM80" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AM80" s="10"/>
       <c r="AN80" s="10"/>
       <c r="AO80" s="10"/>
       <c r="AP80" s="10"/>
-      <c r="AQ80" s="10"/>
-      <c r="AR80" s="10"/>
-      <c r="AS80" s="1" t="s">
+      <c r="AQ80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AT80" s="5" t="s">
+      <c r="AR80" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:46">
+    <row r="81" spans="1:44">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="10"/>
@@ -7533,39 +7461,31 @@
       <c r="AN81" s="10"/>
       <c r="AO81" s="10"/>
       <c r="AP81" s="10"/>
-      <c r="AQ81" s="10"/>
-      <c r="AR81" s="10"/>
-      <c r="AS81" s="1"/>
-      <c r="AT81" s="5"/>
-    </row>
-    <row r="82" spans="1:46">
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="4"/>
+    </row>
+    <row r="82" spans="1:44">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D82" s="12"/>
-      <c r="E82" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="E82" s="12"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="I82" s="12"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="K82" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
-      <c r="Q82" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
@@ -7574,37 +7494,33 @@
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
       <c r="Y82" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
       <c r="AD82" s="12"/>
-      <c r="AE82" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="AE82" s="12"/>
       <c r="AF82" s="12"/>
-      <c r="AG82" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="AG82" s="12"/>
       <c r="AH82" s="12"/>
-      <c r="AI82" s="12"/>
+      <c r="AI82" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="AJ82" s="12"/>
-      <c r="AK82" s="12"/>
+      <c r="AK82" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="AL82" s="12"/>
-      <c r="AM82" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="AM82" s="12"/>
       <c r="AN82" s="12"/>
       <c r="AO82" s="12"/>
       <c r="AP82" s="12"/>
-      <c r="AQ82" s="12"/>
-      <c r="AR82" s="12"/>
-      <c r="AS82" s="1"/>
-      <c r="AT82" s="5"/>
-    </row>
-    <row r="83" spans="1:46">
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="4"/>
+    </row>
+    <row r="83" spans="1:44">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="12"/>
@@ -7647,27 +7563,31 @@
       <c r="AN83" s="12"/>
       <c r="AO83" s="12"/>
       <c r="AP83" s="12"/>
-      <c r="AQ83" s="12"/>
-      <c r="AR83" s="12"/>
-      <c r="AS83" s="1"/>
-      <c r="AT83" s="5"/>
-    </row>
-    <row r="84" spans="1:46">
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="4"/>
+    </row>
+    <row r="84" spans="1:44">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
+      <c r="I84" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
+      <c r="K84" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
@@ -7675,7 +7595,9 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
+      <c r="S84" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
@@ -7699,16 +7621,12 @@
       <c r="AN84" s="10"/>
       <c r="AO84" s="10"/>
       <c r="AP84" s="10"/>
-      <c r="AQ84" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR84" s="10"/>
-      <c r="AS84" s="1" t="s">
+      <c r="AQ84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT84" s="5"/>
-    </row>
-    <row r="85" spans="1:46">
+      <c r="AR84" s="4"/>
+    </row>
+    <row r="85" spans="1:44">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -7751,25 +7669,29 @@
       <c r="AN85" s="10"/>
       <c r="AO85" s="10"/>
       <c r="AP85" s="10"/>
-      <c r="AQ85" s="10"/>
-      <c r="AR85" s="10"/>
-      <c r="AS85" s="1"/>
-      <c r="AT85" s="5"/>
-    </row>
-    <row r="86" spans="1:46">
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="4"/>
+    </row>
+    <row r="86" spans="1:44">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="E86" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
+      <c r="K86" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
@@ -7777,7 +7699,9 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
+      <c r="S86" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
@@ -7801,14 +7725,10 @@
       <c r="AN86" s="12"/>
       <c r="AO86" s="12"/>
       <c r="AP86" s="12"/>
-      <c r="AQ86" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR86" s="12"/>
-      <c r="AS86" s="1"/>
-      <c r="AT86" s="5"/>
-    </row>
-    <row r="87" spans="1:46">
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="4"/>
+    </row>
+    <row r="87" spans="1:44">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="12"/>
@@ -7851,12 +7771,10 @@
       <c r="AN87" s="12"/>
       <c r="AO87" s="12"/>
       <c r="AP87" s="12"/>
-      <c r="AQ87" s="12"/>
-      <c r="AR87" s="12"/>
-      <c r="AS87" s="1"/>
-      <c r="AT87" s="5"/>
-    </row>
-    <row r="88" spans="1:46">
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="4"/>
+    </row>
+    <row r="88" spans="1:44">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -7901,14 +7819,12 @@
       <c r="AN88" s="10"/>
       <c r="AO88" s="10"/>
       <c r="AP88" s="10"/>
-      <c r="AQ88" s="10"/>
-      <c r="AR88" s="10"/>
-      <c r="AS88" s="1" t="s">
+      <c r="AQ88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT88" s="5"/>
-    </row>
-    <row r="89" spans="1:46">
+      <c r="AR88" s="4"/>
+    </row>
+    <row r="89" spans="1:44">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="10"/>
@@ -7951,12 +7867,10 @@
       <c r="AN89" s="10"/>
       <c r="AO89" s="10"/>
       <c r="AP89" s="10"/>
-      <c r="AQ89" s="10"/>
-      <c r="AR89" s="10"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="5"/>
-    </row>
-    <row r="90" spans="1:46">
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="4"/>
+    </row>
+    <row r="90" spans="1:44">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="12"/>
@@ -7999,12 +7913,10 @@
       <c r="AN90" s="12"/>
       <c r="AO90" s="12"/>
       <c r="AP90" s="12"/>
-      <c r="AQ90" s="12"/>
-      <c r="AR90" s="12"/>
-      <c r="AS90" s="1"/>
-      <c r="AT90" s="5"/>
-    </row>
-    <row r="91" spans="1:46">
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="4"/>
+    </row>
+    <row r="91" spans="1:44">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="12"/>
@@ -8047,12 +7959,10 @@
       <c r="AN91" s="12"/>
       <c r="AO91" s="12"/>
       <c r="AP91" s="12"/>
-      <c r="AQ91" s="12"/>
-      <c r="AR91" s="12"/>
-      <c r="AS91" s="1"/>
-      <c r="AT91" s="5"/>
-    </row>
-    <row r="92" spans="1:46">
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="4"/>
+    </row>
+    <row r="92" spans="1:44">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>11</v>
@@ -8097,14 +8007,12 @@
       <c r="AN92" s="10"/>
       <c r="AO92" s="10"/>
       <c r="AP92" s="10"/>
-      <c r="AQ92" s="10"/>
-      <c r="AR92" s="10"/>
-      <c r="AS92" s="1" t="s">
+      <c r="AQ92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT92" s="5"/>
-    </row>
-    <row r="93" spans="1:46">
+      <c r="AR92" s="4"/>
+    </row>
+    <row r="93" spans="1:44">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="10"/>
@@ -8147,12 +8055,10 @@
       <c r="AN93" s="10"/>
       <c r="AO93" s="10"/>
       <c r="AP93" s="10"/>
-      <c r="AQ93" s="10"/>
-      <c r="AR93" s="10"/>
-      <c r="AS93" s="1"/>
-      <c r="AT93" s="5"/>
-    </row>
-    <row r="94" spans="1:46">
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="4"/>
+    </row>
+    <row r="94" spans="1:44">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="12"/>
@@ -8195,12 +8101,10 @@
       <c r="AN94" s="12"/>
       <c r="AO94" s="12"/>
       <c r="AP94" s="12"/>
-      <c r="AQ94" s="12"/>
-      <c r="AR94" s="12"/>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="5"/>
-    </row>
-    <row r="95" spans="1:46">
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="4"/>
+    </row>
+    <row r="95" spans="1:44">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="12"/>
@@ -8243,27 +8147,21 @@
       <c r="AN95" s="12"/>
       <c r="AO95" s="12"/>
       <c r="AP95" s="12"/>
-      <c r="AQ95" s="12"/>
-      <c r="AR95" s="12"/>
-      <c r="AS95" s="1"/>
-      <c r="AT95" s="5"/>
-    </row>
-    <row r="96" spans="1:46">
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="4"/>
+    </row>
+    <row r="96" spans="1:44">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -8273,9 +8171,7 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
@@ -8283,42 +8179,36 @@
       <c r="V96" s="10"/>
       <c r="W96" s="10"/>
       <c r="X96" s="10"/>
-      <c r="Y96" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
-      <c r="AA96" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="AA96" s="10"/>
       <c r="AB96" s="10"/>
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
       <c r="AE96" s="10"/>
       <c r="AF96" s="10"/>
-      <c r="AG96" s="10"/>
+      <c r="AG96" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="AH96" s="10"/>
       <c r="AI96" s="10"/>
       <c r="AJ96" s="10"/>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
-      <c r="AM96" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="AM96" s="10"/>
       <c r="AN96" s="10"/>
-      <c r="AO96" s="10"/>
+      <c r="AO96" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AP96" s="10"/>
-      <c r="AQ96" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR96" s="10"/>
-      <c r="AS96" s="1" t="s">
+      <c r="AQ96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AT96" s="5" t="s">
+      <c r="AR96" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:46">
+    <row r="97" spans="1:44">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="10"/>
@@ -8361,23 +8251,17 @@
       <c r="AN97" s="10"/>
       <c r="AO97" s="10"/>
       <c r="AP97" s="10"/>
-      <c r="AQ97" s="10"/>
-      <c r="AR97" s="10"/>
-      <c r="AS97" s="1"/>
-      <c r="AT97" s="5"/>
-    </row>
-    <row r="98" spans="1:46">
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="4"/>
+    </row>
+    <row r="98" spans="1:44">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
@@ -8387,9 +8271,7 @@
       <c r="N98" s="12"/>
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
-      <c r="Q98" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
@@ -8397,38 +8279,32 @@
       <c r="V98" s="12"/>
       <c r="W98" s="12"/>
       <c r="X98" s="12"/>
-      <c r="Y98" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="Y98" s="12"/>
       <c r="Z98" s="12"/>
-      <c r="AA98" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA98" s="12"/>
       <c r="AB98" s="12"/>
       <c r="AC98" s="12"/>
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
       <c r="AF98" s="12"/>
-      <c r="AG98" s="12"/>
+      <c r="AG98" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AH98" s="12"/>
       <c r="AI98" s="12"/>
       <c r="AJ98" s="12"/>
       <c r="AK98" s="12"/>
       <c r="AL98" s="12"/>
-      <c r="AM98" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="AM98" s="12"/>
       <c r="AN98" s="12"/>
-      <c r="AO98" s="12"/>
+      <c r="AO98" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="AP98" s="12"/>
-      <c r="AQ98" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR98" s="12"/>
-      <c r="AS98" s="1"/>
-      <c r="AT98" s="5"/>
-    </row>
-    <row r="99" spans="1:46">
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="4"/>
+    </row>
+    <row r="99" spans="1:44">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="12"/>
@@ -8471,12 +8347,10 @@
       <c r="AN99" s="12"/>
       <c r="AO99" s="12"/>
       <c r="AP99" s="12"/>
-      <c r="AQ99" s="12"/>
-      <c r="AR99" s="12"/>
-      <c r="AS99" s="1"/>
-      <c r="AT99" s="5"/>
-    </row>
-    <row r="100" spans="1:46">
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="4"/>
+    </row>
+    <row r="100" spans="1:44">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>9</v>
@@ -8485,15 +8359,21 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
+      <c r="I100" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
+      <c r="O100" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
@@ -8509,7 +8389,9 @@
       <c r="AB100" s="10"/>
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
-      <c r="AE100" s="10"/>
+      <c r="AE100" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="AF100" s="10"/>
       <c r="AG100" s="10"/>
       <c r="AH100" s="10"/>
@@ -8521,16 +8403,12 @@
       <c r="AN100" s="10"/>
       <c r="AO100" s="10"/>
       <c r="AP100" s="10"/>
-      <c r="AQ100" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR100" s="10"/>
-      <c r="AS100" s="1" t="s">
+      <c r="AQ100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT100" s="5"/>
-    </row>
-    <row r="101" spans="1:46">
+      <c r="AR100" s="4"/>
+    </row>
+    <row r="101" spans="1:44">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="10"/>
@@ -8573,27 +8451,31 @@
       <c r="AN101" s="10"/>
       <c r="AO101" s="10"/>
       <c r="AP101" s="10"/>
-      <c r="AQ101" s="10"/>
-      <c r="AR101" s="10"/>
-      <c r="AS101" s="1"/>
-      <c r="AT101" s="5"/>
-    </row>
-    <row r="102" spans="1:46">
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="4"/>
+    </row>
+    <row r="102" spans="1:44">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
+      <c r="G102" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="I102" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
+      <c r="O102" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
@@ -8609,7 +8491,9 @@
       <c r="AB102" s="12"/>
       <c r="AC102" s="12"/>
       <c r="AD102" s="12"/>
-      <c r="AE102" s="12"/>
+      <c r="AE102" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="AF102" s="12"/>
       <c r="AG102" s="12"/>
       <c r="AH102" s="12"/>
@@ -8621,14 +8505,10 @@
       <c r="AN102" s="12"/>
       <c r="AO102" s="12"/>
       <c r="AP102" s="12"/>
-      <c r="AQ102" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR102" s="12"/>
-      <c r="AS102" s="1"/>
-      <c r="AT102" s="5"/>
-    </row>
-    <row r="103" spans="1:46">
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="4"/>
+    </row>
+    <row r="103" spans="1:44">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="12"/>
@@ -8671,12 +8551,10 @@
       <c r="AN103" s="12"/>
       <c r="AO103" s="12"/>
       <c r="AP103" s="12"/>
-      <c r="AQ103" s="12"/>
-      <c r="AR103" s="12"/>
-      <c r="AS103" s="1"/>
-      <c r="AT103" s="5"/>
-    </row>
-    <row r="104" spans="1:46">
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="4"/>
+    </row>
+    <row r="104" spans="1:44">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -8721,14 +8599,12 @@
       <c r="AN104" s="10"/>
       <c r="AO104" s="10"/>
       <c r="AP104" s="10"/>
-      <c r="AQ104" s="10"/>
-      <c r="AR104" s="10"/>
-      <c r="AS104" s="1" t="s">
+      <c r="AQ104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT104" s="5"/>
-    </row>
-    <row r="105" spans="1:46">
+      <c r="AR104" s="4"/>
+    </row>
+    <row r="105" spans="1:44">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="10"/>
@@ -8771,12 +8647,10 @@
       <c r="AN105" s="10"/>
       <c r="AO105" s="10"/>
       <c r="AP105" s="10"/>
-      <c r="AQ105" s="10"/>
-      <c r="AR105" s="10"/>
-      <c r="AS105" s="1"/>
-      <c r="AT105" s="5"/>
-    </row>
-    <row r="106" spans="1:46">
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="4"/>
+    </row>
+    <row r="106" spans="1:44">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="12"/>
@@ -8819,12 +8693,10 @@
       <c r="AN106" s="12"/>
       <c r="AO106" s="12"/>
       <c r="AP106" s="12"/>
-      <c r="AQ106" s="12"/>
-      <c r="AR106" s="12"/>
-      <c r="AS106" s="1"/>
-      <c r="AT106" s="5"/>
-    </row>
-    <row r="107" spans="1:46">
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="4"/>
+    </row>
+    <row r="107" spans="1:44">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="12"/>
@@ -8867,12 +8739,10 @@
       <c r="AN107" s="12"/>
       <c r="AO107" s="12"/>
       <c r="AP107" s="12"/>
-      <c r="AQ107" s="12"/>
-      <c r="AR107" s="12"/>
-      <c r="AS107" s="1"/>
-      <c r="AT107" s="5"/>
-    </row>
-    <row r="108" spans="1:46">
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="4"/>
+    </row>
+    <row r="108" spans="1:44">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -8917,14 +8787,12 @@
       <c r="AN108" s="10"/>
       <c r="AO108" s="10"/>
       <c r="AP108" s="10"/>
-      <c r="AQ108" s="10"/>
-      <c r="AR108" s="10"/>
-      <c r="AS108" s="1" t="s">
+      <c r="AQ108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT108" s="5"/>
-    </row>
-    <row r="109" spans="1:46">
+      <c r="AR108" s="4"/>
+    </row>
+    <row r="109" spans="1:44">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="10"/>
@@ -8967,12 +8835,10 @@
       <c r="AN109" s="10"/>
       <c r="AO109" s="10"/>
       <c r="AP109" s="10"/>
-      <c r="AQ109" s="10"/>
-      <c r="AR109" s="10"/>
-      <c r="AS109" s="1"/>
-      <c r="AT109" s="5"/>
-    </row>
-    <row r="110" spans="1:46">
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="4"/>
+    </row>
+    <row r="110" spans="1:44">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="12"/>
@@ -9015,12 +8881,10 @@
       <c r="AN110" s="12"/>
       <c r="AO110" s="12"/>
       <c r="AP110" s="12"/>
-      <c r="AQ110" s="12"/>
-      <c r="AR110" s="12"/>
-      <c r="AS110" s="1"/>
-      <c r="AT110" s="5"/>
-    </row>
-    <row r="111" spans="1:46">
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="4"/>
+    </row>
+    <row r="111" spans="1:44">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="12"/>
@@ -9063,13 +8927,11 @@
       <c r="AN111" s="12"/>
       <c r="AO111" s="12"/>
       <c r="AP111" s="12"/>
-      <c r="AQ111" s="12"/>
-      <c r="AR111" s="12"/>
-      <c r="AS111" s="1"/>
-      <c r="AT111" s="5"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1093">
+  <mergeCells count="1044">
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="A16:A31"/>
@@ -9122,39 +8984,38 @@
     <mergeCell ref="AK11:AL15"/>
     <mergeCell ref="AM11:AN15"/>
     <mergeCell ref="AO11:AP15"/>
-    <mergeCell ref="AQ11:AR15"/>
-    <mergeCell ref="AS11:AS15"/>
-    <mergeCell ref="AT11:AT15"/>
-    <mergeCell ref="AS16:AS19"/>
-    <mergeCell ref="AS20:AS23"/>
-    <mergeCell ref="AS24:AS27"/>
-    <mergeCell ref="AS28:AS31"/>
-    <mergeCell ref="AS32:AS35"/>
-    <mergeCell ref="AS36:AS39"/>
-    <mergeCell ref="AS40:AS43"/>
-    <mergeCell ref="AS44:AS47"/>
-    <mergeCell ref="AS48:AS51"/>
-    <mergeCell ref="AS52:AS55"/>
-    <mergeCell ref="AS56:AS59"/>
-    <mergeCell ref="AS60:AS63"/>
-    <mergeCell ref="AS64:AS67"/>
-    <mergeCell ref="AS68:AS71"/>
-    <mergeCell ref="AS72:AS75"/>
-    <mergeCell ref="AS76:AS79"/>
-    <mergeCell ref="AS80:AS83"/>
-    <mergeCell ref="AS84:AS87"/>
-    <mergeCell ref="AS88:AS91"/>
-    <mergeCell ref="AS92:AS95"/>
-    <mergeCell ref="AS96:AS99"/>
-    <mergeCell ref="AS100:AS103"/>
-    <mergeCell ref="AS104:AS107"/>
-    <mergeCell ref="AS108:AS111"/>
-    <mergeCell ref="AT16:AT31"/>
-    <mergeCell ref="AT32:AT47"/>
-    <mergeCell ref="AT48:AT63"/>
-    <mergeCell ref="AT64:AT79"/>
-    <mergeCell ref="AT80:AT95"/>
-    <mergeCell ref="AT96:AT111"/>
+    <mergeCell ref="AQ11:AQ15"/>
+    <mergeCell ref="AR11:AR15"/>
+    <mergeCell ref="AQ16:AQ19"/>
+    <mergeCell ref="AQ20:AQ23"/>
+    <mergeCell ref="AQ24:AQ27"/>
+    <mergeCell ref="AQ28:AQ31"/>
+    <mergeCell ref="AQ32:AQ35"/>
+    <mergeCell ref="AQ36:AQ39"/>
+    <mergeCell ref="AQ40:AQ43"/>
+    <mergeCell ref="AQ44:AQ47"/>
+    <mergeCell ref="AQ48:AQ51"/>
+    <mergeCell ref="AQ52:AQ55"/>
+    <mergeCell ref="AQ56:AQ59"/>
+    <mergeCell ref="AQ60:AQ63"/>
+    <mergeCell ref="AQ64:AQ67"/>
+    <mergeCell ref="AQ68:AQ71"/>
+    <mergeCell ref="AQ72:AQ75"/>
+    <mergeCell ref="AQ76:AQ79"/>
+    <mergeCell ref="AQ80:AQ83"/>
+    <mergeCell ref="AQ84:AQ87"/>
+    <mergeCell ref="AQ88:AQ91"/>
+    <mergeCell ref="AQ92:AQ95"/>
+    <mergeCell ref="AQ96:AQ99"/>
+    <mergeCell ref="AQ100:AQ103"/>
+    <mergeCell ref="AQ104:AQ107"/>
+    <mergeCell ref="AQ108:AQ111"/>
+    <mergeCell ref="AR16:AR31"/>
+    <mergeCell ref="AR32:AR47"/>
+    <mergeCell ref="AR48:AR63"/>
+    <mergeCell ref="AR64:AR79"/>
+    <mergeCell ref="AR80:AR95"/>
+    <mergeCell ref="AR96:AR111"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="C32:D33"/>
@@ -10115,54 +9976,6 @@
     <mergeCell ref="AO94:AP95"/>
     <mergeCell ref="AO108:AP109"/>
     <mergeCell ref="AO110:AP111"/>
-    <mergeCell ref="AQ16:AR17"/>
-    <mergeCell ref="AQ18:AR19"/>
-    <mergeCell ref="AQ32:AR33"/>
-    <mergeCell ref="AQ34:AR35"/>
-    <mergeCell ref="AQ48:AR49"/>
-    <mergeCell ref="AQ50:AR51"/>
-    <mergeCell ref="AQ64:AR65"/>
-    <mergeCell ref="AQ66:AR67"/>
-    <mergeCell ref="AQ80:AR81"/>
-    <mergeCell ref="AQ82:AR83"/>
-    <mergeCell ref="AQ96:AR97"/>
-    <mergeCell ref="AQ98:AR99"/>
-    <mergeCell ref="AQ20:AR21"/>
-    <mergeCell ref="AQ22:AR23"/>
-    <mergeCell ref="AQ36:AR37"/>
-    <mergeCell ref="AQ38:AR39"/>
-    <mergeCell ref="AQ52:AR53"/>
-    <mergeCell ref="AQ54:AR55"/>
-    <mergeCell ref="AQ68:AR69"/>
-    <mergeCell ref="AQ70:AR71"/>
-    <mergeCell ref="AQ84:AR85"/>
-    <mergeCell ref="AQ86:AR87"/>
-    <mergeCell ref="AQ100:AR101"/>
-    <mergeCell ref="AQ102:AR103"/>
-    <mergeCell ref="AQ24:AR25"/>
-    <mergeCell ref="AQ26:AR27"/>
-    <mergeCell ref="AQ40:AR41"/>
-    <mergeCell ref="AQ42:AR43"/>
-    <mergeCell ref="AQ56:AR57"/>
-    <mergeCell ref="AQ58:AR59"/>
-    <mergeCell ref="AQ72:AR73"/>
-    <mergeCell ref="AQ74:AR75"/>
-    <mergeCell ref="AQ88:AR89"/>
-    <mergeCell ref="AQ90:AR91"/>
-    <mergeCell ref="AQ104:AR105"/>
-    <mergeCell ref="AQ106:AR107"/>
-    <mergeCell ref="AQ28:AR29"/>
-    <mergeCell ref="AQ30:AR31"/>
-    <mergeCell ref="AQ44:AR45"/>
-    <mergeCell ref="AQ46:AR47"/>
-    <mergeCell ref="AQ60:AR61"/>
-    <mergeCell ref="AQ62:AR63"/>
-    <mergeCell ref="AQ76:AR77"/>
-    <mergeCell ref="AQ78:AR79"/>
-    <mergeCell ref="AQ92:AR93"/>
-    <mergeCell ref="AQ94:AR95"/>
-    <mergeCell ref="AQ108:AR109"/>
-    <mergeCell ref="AQ110:AR111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule_maker/static/xlsx/schedule.xlsx
+++ b/Schedule_maker/static/xlsx/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="72">
   <si>
     <t>День</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Алгоритмы и структуры данных</t>
   </si>
   <si>
-    <t>Alexandra Lambert</t>
+    <t>Kaitlyn Allen</t>
   </si>
   <si>
     <t>306</t>
@@ -86,49 +86,49 @@
     <t>math</t>
   </si>
   <si>
-    <t>Sharon Wright</t>
+    <t>Victoria Baker</t>
   </si>
   <si>
     <t>science</t>
   </si>
   <si>
-    <t>Jacob Simon</t>
+    <t>Erica Romero</t>
   </si>
   <si>
     <t>geography</t>
   </si>
   <si>
-    <t>Katherine Dickerson</t>
+    <t>Marie Petersen</t>
   </si>
   <si>
     <t>I.T.</t>
   </si>
   <si>
-    <t>Margaret Frey</t>
+    <t>Emily Smith</t>
   </si>
   <si>
     <t>biology</t>
   </si>
   <si>
-    <t>Cory Parks</t>
+    <t>Steven Hunter</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>325</t>
+    <t>Raymond Robinson</t>
   </si>
   <si>
-    <t>Jeffery Long</t>
-  </si>
-  <si>
-    <t>Nathan Morgan</t>
+    <t>325</t>
   </si>
   <si>
     <t>313</t>
   </si>
   <si>
-    <t>Jose Schmidt</t>
+    <t>Scott Pollard</t>
+  </si>
+  <si>
+    <t>Betty Newman</t>
   </si>
   <si>
     <t>329</t>
@@ -137,7 +137,7 @@
     <t>326</t>
   </si>
   <si>
-    <t>Samantha Davis</t>
+    <t>Daniel Fowler</t>
   </si>
   <si>
     <t>407</t>
@@ -146,13 +146,13 @@
     <t>420</t>
   </si>
   <si>
-    <t>Jesse Smith</t>
-  </si>
-  <si>
-    <t>Kim Rodgers</t>
+    <t>Christopher Stewart</t>
   </si>
   <si>
     <t>327</t>
+  </si>
+  <si>
+    <t>Ashley Gross</t>
   </si>
   <si>
     <t>507</t>
@@ -161,64 +161,49 @@
     <t>art</t>
   </si>
   <si>
-    <t>Belinda Powers</t>
+    <t>Patricia Odom</t>
   </si>
   <si>
     <t>history</t>
   </si>
   <si>
-    <t>Julie Olson</t>
+    <t>William Duncan</t>
   </si>
   <si>
     <t>music</t>
   </si>
   <si>
-    <t>Alicia Lane DDS</t>
+    <t>Daniel Diaz</t>
   </si>
   <si>
     <t>P.E.</t>
   </si>
   <si>
-    <t>Austin Robbins</t>
+    <t>Eric Butler</t>
   </si>
   <si>
-    <t>Cody White</t>
+    <t>Denise Bowman</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>Russell Lewis</t>
+    <t>Aaron Maddox</t>
   </si>
   <si>
-    <t>Joshua Espinoza</t>
+    <t>James Miller</t>
   </si>
   <si>
-    <t>Shirley Chandler</t>
+    <t>Gregory Hendricks</t>
   </si>
   <si>
     <t>107</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122 10701222 10701322</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702322 10702422</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702322</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702122 10702222</t>
   </si>
   <si>
     <t xml:space="preserve"> 10701222</t>
@@ -228,6 +213,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 10702122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10702222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10701122 10701222 10701322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10702122 10702222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10702422</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10701122</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702122 10702222 10702322 10702422</t>
@@ -675,14 +675,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="2" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="101" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="20" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -744,7 +744,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="20" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -764,7 +764,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" ht="20" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -784,7 +784,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" ht="20" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -804,7 +804,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -820,13 +820,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -838,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="20" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -858,7 +858,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="20" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
@@ -870,13 +870,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -884,7 +884,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="20" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="6" t="s">
@@ -910,7 +910,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>9</v>
@@ -925,10 +925,10 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="3" t="s">
@@ -946,7 +946,7 @@
       </c>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="20" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="7"/>
@@ -966,23 +966,23 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="20" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="5" t="s">
@@ -998,14 +998,14 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="20" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>38</v>
@@ -1030,7 +1030,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" ht="20" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="20" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -1082,7 +1082,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="20" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="11" t="s">
@@ -1090,15 +1090,15 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="9"/>
@@ -1110,11 +1110,11 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="20" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
@@ -1138,7 +1138,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="20" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="20" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -1182,7 +1182,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="20" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="9"/>
@@ -1202,7 +1202,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="20" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="9"/>
@@ -1222,7 +1222,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1238,13 +1238,13 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -1256,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="20" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
@@ -1276,7 +1276,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" ht="20" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="5" t="s">
@@ -1288,13 +1288,13 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -1302,7 +1302,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" ht="20" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6" t="s">
@@ -1328,7 +1328,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="20" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
@@ -1342,11 +1342,9 @@
       <c r="E36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
@@ -1355,10 +1353,10 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="10"/>
+      <c r="M36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="7"/>
       <c r="O36" s="10" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1366,7 @@
       </c>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" ht="20" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -1381,66 +1379,62 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" ht="20" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="11"/>
+      <c r="M38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="9"/>
       <c r="O38" s="11" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" ht="20" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="6" t="s">
@@ -1449,26 +1443,28 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" s="12"/>
+      <c r="M39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="9"/>
       <c r="O39" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" ht="20" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
         <v>26</v>
       </c>
@@ -1478,13 +1474,11 @@
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N40" s="10"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="1" t="s">
@@ -1492,35 +1486,37 @@
       </c>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" ht="20" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" ht="20" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="E42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11" t="s">
@@ -1528,47 +1524,45 @@
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L42" s="11"/>
-      <c r="M42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N42" s="11"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" ht="20" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="E43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L43" s="12"/>
-      <c r="M43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N43" s="12"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" ht="20" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -1592,7 +1586,7 @@
       </c>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" ht="20" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
@@ -1612,7 +1606,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" ht="20" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="9"/>
@@ -1632,7 +1626,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" ht="20" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="9"/>
@@ -1652,7 +1646,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1662,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -1686,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" ht="20" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -1706,7 +1700,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" ht="20" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="5" t="s">
@@ -1718,7 +1712,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -1732,7 +1726,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" ht="20" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="6" t="s">
@@ -1758,7 +1752,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="20" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -1767,10 +1761,10 @@
         <v>22</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="10"/>
+      <c r="E52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
         <v>19</v>
       </c>
@@ -1780,31 +1774,29 @@
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="L52" s="7"/>
       <c r="M52" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N52" s="10"/>
-      <c r="O52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P52" s="7"/>
+      <c r="O52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" s="10"/>
       <c r="Q52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" ht="20" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -1813,22 +1805,22 @@
       <c r="L53" s="7"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="20" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="11"/>
+      <c r="E54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="8" t="s">
         <v>37</v>
       </c>
@@ -1838,59 +1830,55 @@
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="L54" s="9"/>
       <c r="M54" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N54" s="11"/>
-      <c r="O54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54" s="9"/>
+      <c r="O54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="11"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="20" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="12"/>
-      <c r="E55" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="12"/>
+      <c r="E55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L55" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L55" s="9"/>
       <c r="M55" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N55" s="12"/>
-      <c r="O55" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P55" s="9"/>
+      <c r="O55" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P55" s="12"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="20" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -1903,24 +1891,26 @@
         <v>30</v>
       </c>
       <c r="H56" s="10"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="I56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
         <v>49</v>
       </c>
       <c r="L56" s="10"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P56" s="10"/>
+      <c r="M56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" s="10"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
       <c r="Q56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" ht="20" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="7"/>
@@ -1929,18 +1919,18 @@
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" ht="20" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="9"/>
@@ -1951,22 +1941,24 @@
         <v>31</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="I58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L58" s="11"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P58" s="11"/>
+      <c r="M58" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" s="11"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="20" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="9"/>
@@ -1974,25 +1966,27 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59" s="12"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="I59" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="12"/>
       <c r="K59" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L59" s="12"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P59" s="12"/>
+      <c r="M59" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N59" s="12"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" ht="20" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>11</v>
@@ -2016,7 +2010,7 @@
       </c>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="20" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="7"/>
@@ -2036,7 +2030,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="20" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="9"/>
@@ -2056,7 +2050,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" ht="20" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="9"/>
@@ -2076,7 +2070,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" ht="20" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -2130,7 +2124,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" ht="20" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="5" t="s">
@@ -2148,7 +2142,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -2156,7 +2150,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" ht="20" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="6" t="s">
@@ -2182,7 +2176,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" ht="20" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>9</v>
@@ -2192,7 +2186,7 @@
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="7" t="s">
@@ -2200,7 +2194,7 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10" t="s">
@@ -2209,16 +2203,14 @@
       <c r="L68" s="10"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="O68" s="7"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" ht="20" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -2238,15 +2230,15 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" ht="20" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="8" t="s">
@@ -2254,27 +2246,25 @@
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="O70" s="9"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" ht="20" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12" t="s">
@@ -2286,7 +2276,7 @@
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="12" t="s">
@@ -2295,14 +2285,12 @@
       <c r="L71" s="12"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="O71" s="9"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" ht="20" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -2313,16 +2301,16 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J72" s="10"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="10" t="s">
         <v>30</v>
       </c>
       <c r="L72" s="10"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
+      <c r="M72" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N72" s="10"/>
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="1" t="s">
@@ -2330,7 +2318,7 @@
       </c>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" ht="20" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="7"/>
@@ -2339,18 +2327,18 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" ht="20" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="9"/>
@@ -2359,22 +2347,22 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" s="11"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="11" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L74" s="11"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
+      <c r="M74" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N74" s="11"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" ht="20" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="9"/>
@@ -2383,22 +2371,22 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J75" s="12"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L75" s="12"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
+      <c r="N75" s="12"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" ht="20" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>11</v>
@@ -2422,7 +2410,7 @@
       </c>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" ht="20" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
@@ -2442,7 +2430,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" ht="20" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="9"/>
@@ -2462,7 +2450,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" ht="20" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="9"/>
@@ -2482,7 +2470,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -2506,13 +2494,13 @@
       <c r="M80" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N80" s="7" t="s">
+      <c r="N80" s="7"/>
+      <c r="O80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P80" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O80" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P80" s="10"/>
       <c r="Q80" s="1" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" ht="20" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -2535,12 +2523,12 @@
       <c r="L81" s="3"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" ht="20" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="5" t="s">
@@ -2558,19 +2546,19 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N82" s="9"/>
+      <c r="O82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P82" s="11"/>
+      <c r="P82" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" ht="20" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="6" t="s">
@@ -2590,17 +2578,17 @@
       <c r="M83" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N83" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O83" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P83" s="12"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" ht="20" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
@@ -2622,7 +2610,7 @@
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="7"/>
@@ -2634,7 +2622,7 @@
       </c>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" ht="20" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -2654,11 +2642,11 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" ht="20" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
@@ -2666,7 +2654,7 @@
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="8" t="s">
@@ -2674,7 +2662,7 @@
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L86" s="11"/>
       <c r="M86" s="9"/>
@@ -2684,11 +2672,11 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" ht="20" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
@@ -2696,7 +2684,7 @@
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="9" t="s">
@@ -2714,7 +2702,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" ht="20" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -2731,14 +2719,16 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
+      <c r="O88" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P88" s="10"/>
       <c r="Q88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" ht="20" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="7"/>
@@ -2753,12 +2743,12 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" ht="20" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="9"/>
@@ -2773,12 +2763,14 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
+      <c r="O90" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" s="11"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" ht="20" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="9"/>
@@ -2793,12 +2785,14 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
+      <c r="O91" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" s="12"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" ht="20" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>11</v>
@@ -2822,7 +2816,7 @@
       </c>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" ht="20" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="7"/>
@@ -2842,7 +2836,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" ht="20" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="9"/>
@@ -2862,7 +2856,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" ht="20" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="9"/>
@@ -2882,7 +2876,7 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -2914,7 +2908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" ht="20" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="3"/>
@@ -2934,7 +2928,7 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" ht="20" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="5" t="s">
@@ -2958,7 +2952,7 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" ht="20" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="6" t="s">
@@ -2982,7 +2976,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" ht="20" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>9</v>
@@ -2992,7 +2986,7 @@
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
@@ -3000,10 +2994,12 @@
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J100" s="10"/>
-      <c r="K100" s="7"/>
+      <c r="K100" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
@@ -3014,7 +3010,7 @@
       </c>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" ht="20" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="10"/>
@@ -3034,26 +3030,28 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" ht="20" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J102" s="11"/>
-      <c r="K102" s="9"/>
+      <c r="K102" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -3062,11 +3060,11 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" ht="20" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="s">
@@ -3074,14 +3072,16 @@
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
         <v>56</v>
       </c>
       <c r="J103" s="12"/>
-      <c r="K103" s="9"/>
+      <c r="K103" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
@@ -3090,7 +3090,7 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" ht="20" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" ht="20" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="7"/>
@@ -3134,7 +3134,7 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" ht="20" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="9"/>
@@ -3154,7 +3154,7 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" ht="20" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="9"/>
@@ -3174,7 +3174,7 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" ht="20" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" ht="20" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="7"/>
@@ -3218,7 +3218,7 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" ht="20" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="9"/>
@@ -3238,7 +3238,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" ht="20" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="9"/>
@@ -3414,9 +3414,7 @@
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E52:E53"/>
     <mergeCell ref="E68:F69"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="E71:F71"/>
@@ -3429,8 +3427,9 @@
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="E72:E73"/>
@@ -3453,8 +3452,9 @@
     <mergeCell ref="E110:E111"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="F72:F73"/>
@@ -3576,11 +3576,11 @@
     <mergeCell ref="I40:J41"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I72:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
     <mergeCell ref="I88:I89"/>
     <mergeCell ref="I90:I91"/>
     <mergeCell ref="I104:I105"/>
@@ -3601,8 +3601,8 @@
     <mergeCell ref="J54:J55"/>
     <mergeCell ref="J84:J85"/>
     <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
     <mergeCell ref="J88:J89"/>
     <mergeCell ref="J90:J91"/>
     <mergeCell ref="J104:J105"/>
@@ -3627,7 +3627,6 @@
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="K40:L41"/>
@@ -3656,6 +3655,7 @@
     <mergeCell ref="K108:K109"/>
     <mergeCell ref="K110:K111"/>
     <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
     <mergeCell ref="L100:L101"/>
     <mergeCell ref="L102:L103"/>
     <mergeCell ref="L24:L25"/>
@@ -3689,9 +3689,7 @@
     <mergeCell ref="M66:P66"/>
     <mergeCell ref="M67:P67"/>
     <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M36:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M36:M37"/>
     <mergeCell ref="M52:N53"/>
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="M55:N55"/>
@@ -3703,13 +3701,14 @@
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M72:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
     <mergeCell ref="M88:M89"/>
     <mergeCell ref="M90:M91"/>
     <mergeCell ref="M104:M105"/>
@@ -3727,6 +3726,9 @@
     <mergeCell ref="M108:M109"/>
     <mergeCell ref="M110:M111"/>
     <mergeCell ref="N80:N81"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N38:N39"/>
     <mergeCell ref="N68:N69"/>
     <mergeCell ref="N70:N71"/>
     <mergeCell ref="N84:N85"/>
@@ -3735,10 +3737,8 @@
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
     <mergeCell ref="N88:N89"/>
     <mergeCell ref="N90:N91"/>
     <mergeCell ref="N104:N105"/>
@@ -3755,14 +3755,15 @@
     <mergeCell ref="N94:N95"/>
     <mergeCell ref="N108:N109"/>
     <mergeCell ref="N110:N111"/>
-    <mergeCell ref="O80:P81"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O80:O81"/>
     <mergeCell ref="O36:P37"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O52:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
     <mergeCell ref="O68:O69"/>
+    <mergeCell ref="O70:O71"/>
     <mergeCell ref="O84:O85"/>
     <mergeCell ref="O86:O87"/>
     <mergeCell ref="O100:O101"/>
@@ -3771,13 +3772,13 @@
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="O42:O43"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O58:O59"/>
     <mergeCell ref="O72:O73"/>
     <mergeCell ref="O74:O75"/>
-    <mergeCell ref="O88:O89"/>
-    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="O88:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
     <mergeCell ref="O104:O105"/>
     <mergeCell ref="O106:O107"/>
     <mergeCell ref="O28:O29"/>
@@ -3792,8 +3793,7 @@
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="O108:O109"/>
     <mergeCell ref="O110:O111"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="P80:P81"/>
     <mergeCell ref="P68:P69"/>
     <mergeCell ref="P70:P71"/>
     <mergeCell ref="P84:P85"/>
@@ -3804,10 +3804,10 @@
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P40:P41"/>
     <mergeCell ref="P42:P43"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="P58:P59"/>
     <mergeCell ref="P72:P73"/>
     <mergeCell ref="P74:P75"/>
-    <mergeCell ref="P88:P89"/>
-    <mergeCell ref="P90:P91"/>
     <mergeCell ref="P104:P105"/>
     <mergeCell ref="P106:P107"/>
     <mergeCell ref="P28:P29"/>
@@ -3833,14 +3833,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="2" max="43" width="20.7109375" customWidth="1"/>
     <col min="44" max="44" width="10.7109375" customWidth="1"/>
     <col min="45" max="101" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3848,11 +3848,11 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -3860,11 +3860,11 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
@@ -3876,11 +3876,11 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1" t="s">
@@ -3920,11 +3920,11 @@
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1" t="s">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" ht="20" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3980,7 +3980,7 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" ht="20" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4026,7 +4026,7 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" ht="20" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4072,7 +4072,7 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" ht="20" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4118,7 +4118,7 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -4133,11 +4133,11 @@
         <v>19</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -4178,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" ht="20" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -4224,22 +4224,22 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="4"/>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" ht="20" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -4276,14 +4276,20 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="4"/>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" ht="20" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -4322,7 +4328,7 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="4"/>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>9</v>
@@ -4369,11 +4375,11 @@
         <v>53</v>
       </c>
       <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
+      <c r="AI20" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ20" s="10"/>
-      <c r="AK20" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
@@ -4384,7 +4390,7 @@
       </c>
       <c r="AR20" s="4"/>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" ht="20" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -4430,17 +4436,17 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="4"/>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" ht="20" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="C22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -4451,14 +4457,14 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T22" s="12"/>
+      <c r="Q22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" s="11"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -4471,15 +4477,15 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="12" t="s">
+      <c r="AG22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
@@ -4488,12 +4494,16 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="4"/>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" ht="20" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -4505,9 +4515,13 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
+      <c r="S23" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
@@ -4521,9 +4535,13 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
+      <c r="AI23" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
@@ -4534,7 +4552,7 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="4"/>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" ht="20" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -4569,7 +4587,9 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
+      <c r="AC24" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
@@ -4583,16 +4603,14 @@
         <v>30</v>
       </c>
       <c r="AN24" s="10"/>
-      <c r="AO24" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
       <c r="AQ24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AR24" s="4"/>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" ht="20" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -4638,7 +4656,7 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="4"/>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" ht="20" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="12"/>
@@ -4647,20 +4665,20 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="12"/>
+      <c r="I26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="11"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R26" s="12"/>
+      <c r="Q26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" s="11"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
@@ -4671,8 +4689,10 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
+      <c r="AC26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD26" s="11"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
@@ -4681,18 +4701,16 @@
       <c r="AJ26" s="12"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
-      <c r="AM26" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="AM26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="4"/>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" ht="20" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="12"/>
@@ -4701,7 +4719,9 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -4709,7 +4729,9 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="Q27" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
@@ -4721,7 +4743,9 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
+      <c r="AC27" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
@@ -4731,14 +4755,16 @@
       <c r="AJ27" s="12"/>
       <c r="AK27" s="12"/>
       <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
+      <c r="AM27" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AN27" s="12"/>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="4"/>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" ht="20" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -4788,7 +4814,7 @@
       </c>
       <c r="AR28" s="4"/>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" ht="20" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -4834,7 +4860,7 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="4"/>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" ht="20" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="12"/>
@@ -4880,7 +4906,7 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="4"/>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" ht="20" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="12"/>
@@ -4926,18 +4952,18 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="4"/>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
         <v>22</v>
@@ -4945,11 +4971,11 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
@@ -4986,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" ht="20" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="10"/>
@@ -5032,26 +5058,26 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="4"/>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" ht="20" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="12"/>
+      <c r="E34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="K34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -5084,18 +5110,24 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="4"/>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" ht="20" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -5130,7 +5162,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="4"/>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" ht="20" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
@@ -5143,25 +5175,23 @@
         <v>19</v>
       </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="Q36" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="R36" s="10"/>
-      <c r="S36" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -5196,7 +5226,7 @@
       </c>
       <c r="AR36" s="4"/>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" ht="20" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
@@ -5242,36 +5272,34 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="4"/>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" ht="20" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="11"/>
+      <c r="S38" s="12"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
@@ -5287,31 +5315,37 @@
       <c r="AF38" s="12"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ38" s="12"/>
-      <c r="AK38" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL38" s="12"/>
-      <c r="AM38" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN38" s="12"/>
+      <c r="AI38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN38" s="11"/>
       <c r="AO38" s="12"/>
       <c r="AP38" s="12"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="4"/>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" ht="20" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -5321,7 +5355,9 @@
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
+      <c r="Q39" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
@@ -5339,18 +5375,24 @@
       <c r="AF39" s="12"/>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
+      <c r="AI39" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
+      <c r="AK39" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
+      <c r="AM39" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="AN39" s="12"/>
       <c r="AO39" s="12"/>
       <c r="AP39" s="12"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="4"/>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" ht="20" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -5363,11 +5405,11 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -5381,9 +5423,7 @@
         <v>49</v>
       </c>
       <c r="X40" s="10"/>
-      <c r="Y40" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
@@ -5399,7 +5439,9 @@
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
       <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
+      <c r="AM40" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AN40" s="10"/>
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
@@ -5408,7 +5450,7 @@
       </c>
       <c r="AR40" s="4"/>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" ht="20" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="10"/>
@@ -5454,7 +5496,7 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="4"/>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" ht="20" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="12"/>
@@ -5465,11 +5507,11 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="K42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
@@ -5479,36 +5521,36 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="W42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
-      <c r="AE42" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF42" s="12"/>
+      <c r="AE42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF42" s="11"/>
       <c r="AG42" s="12"/>
       <c r="AH42" s="12"/>
       <c r="AI42" s="12"/>
       <c r="AJ42" s="12"/>
       <c r="AK42" s="12"/>
       <c r="AL42" s="12"/>
-      <c r="AM42" s="12"/>
-      <c r="AN42" s="12"/>
+      <c r="AM42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN42" s="11"/>
       <c r="AO42" s="12"/>
       <c r="AP42" s="12"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="4"/>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" ht="20" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="12"/>
@@ -5519,7 +5561,9 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -5531,7 +5575,9 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
+      <c r="W43" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -5539,7 +5585,9 @@
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
+      <c r="AE43" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="AF43" s="12"/>
       <c r="AG43" s="12"/>
       <c r="AH43" s="12"/>
@@ -5547,14 +5595,16 @@
       <c r="AJ43" s="12"/>
       <c r="AK43" s="12"/>
       <c r="AL43" s="12"/>
-      <c r="AM43" s="12"/>
+      <c r="AM43" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AN43" s="12"/>
       <c r="AO43" s="12"/>
       <c r="AP43" s="12"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="4"/>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" ht="20" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -5604,7 +5654,7 @@
       </c>
       <c r="AR44" s="4"/>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" ht="20" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="10"/>
@@ -5650,7 +5700,7 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" ht="20" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="12"/>
@@ -5696,7 +5746,7 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" ht="20" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="12"/>
@@ -5742,7 +5792,7 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -5753,23 +5803,23 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
+      <c r="M48" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="10" t="s">
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
@@ -5802,7 +5852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" ht="20" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="10"/>
@@ -5848,31 +5898,31 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="4"/>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:44" ht="20" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="M50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N50" s="11"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
+      <c r="S50" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T50" s="11"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
@@ -5889,10 +5939,10 @@
       <c r="AH50" s="12"/>
       <c r="AI50" s="12"/>
       <c r="AJ50" s="12"/>
-      <c r="AK50" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL50" s="12"/>
+      <c r="AK50" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL50" s="11"/>
       <c r="AM50" s="12"/>
       <c r="AN50" s="12"/>
       <c r="AO50" s="12"/>
@@ -5900,7 +5950,7 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="4"/>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:44" ht="20" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="12"/>
@@ -5913,13 +5963,17 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
+      <c r="M51" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
+      <c r="S51" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
@@ -5937,7 +5991,9 @@
       <c r="AH51" s="12"/>
       <c r="AI51" s="12"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
+      <c r="AK51" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="AL51" s="12"/>
       <c r="AM51" s="12"/>
       <c r="AN51" s="12"/>
@@ -5946,7 +6002,7 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="4"/>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:44" ht="20" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -5955,9 +6011,7 @@
         <v>19</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
         <v>22</v>
@@ -5967,7 +6021,9 @@
         <v>22</v>
       </c>
       <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="K52" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -5975,9 +6031,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
@@ -5997,11 +6051,11 @@
       <c r="AF52" s="10"/>
       <c r="AG52" s="10"/>
       <c r="AH52" s="10"/>
-      <c r="AI52" s="10"/>
+      <c r="AI52" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ52" s="10"/>
-      <c r="AK52" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="AK52" s="10"/>
       <c r="AL52" s="10"/>
       <c r="AM52" s="10"/>
       <c r="AN52" s="10"/>
@@ -6012,7 +6066,7 @@
       </c>
       <c r="AR52" s="4"/>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" ht="20" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -6058,60 +6112,58 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="4"/>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:44" ht="20" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12" t="s">
+      <c r="C54" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L54" s="11"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
-      <c r="Y54" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12" t="s">
+      <c r="Y54" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AB54" s="12"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB54" s="11"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
       <c r="AF54" s="12"/>
       <c r="AG54" s="12"/>
       <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="AI54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="12"/>
       <c r="AL54" s="12"/>
       <c r="AM54" s="12"/>
       <c r="AN54" s="12"/>
@@ -6120,18 +6172,26 @@
       <c r="AQ54" s="1"/>
       <c r="AR54" s="4"/>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:44" ht="20" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="G55" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="I55" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="K55" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
@@ -6145,9 +6205,13 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
+      <c r="Y55" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
+      <c r="AA55" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
       <c r="AD55" s="12"/>
@@ -6155,7 +6219,9 @@
       <c r="AF55" s="12"/>
       <c r="AG55" s="12"/>
       <c r="AH55" s="12"/>
-      <c r="AI55" s="12"/>
+      <c r="AI55" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ55" s="12"/>
       <c r="AK55" s="12"/>
       <c r="AL55" s="12"/>
@@ -6166,7 +6232,7 @@
       <c r="AQ55" s="1"/>
       <c r="AR55" s="4"/>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:44" ht="20" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -6179,7 +6245,9 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
+      <c r="K56" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -6189,17 +6257,15 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
+      <c r="U56" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="V56" s="10"/>
-      <c r="W56" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="W56" s="10"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
-      <c r="AA56" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
@@ -6211,7 +6277,9 @@
       <c r="AJ56" s="10"/>
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
+      <c r="AM56" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AN56" s="10"/>
       <c r="AO56" s="10" t="s">
         <v>30</v>
@@ -6222,7 +6290,7 @@
       </c>
       <c r="AR56" s="4"/>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" ht="20" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="10"/>
@@ -6268,7 +6336,7 @@
       <c r="AQ57" s="1"/>
       <c r="AR57" s="4"/>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" ht="20" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="12"/>
@@ -6279,8 +6347,10 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+      <c r="K58" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="11"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
@@ -6289,17 +6359,15 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="U58" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V58" s="11"/>
+      <c r="W58" s="12"/>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
-      <c r="AA58" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
       <c r="AD58" s="12"/>
@@ -6311,16 +6379,18 @@
       <c r="AJ58" s="12"/>
       <c r="AK58" s="12"/>
       <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
-      <c r="AN58" s="12"/>
-      <c r="AO58" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP58" s="12"/>
+      <c r="AM58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP58" s="11"/>
       <c r="AQ58" s="1"/>
       <c r="AR58" s="4"/>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:44" ht="20" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="12"/>
@@ -6331,7 +6401,9 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="K59" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
@@ -6341,7 +6413,9 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
+      <c r="U59" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
@@ -6359,14 +6433,18 @@
       <c r="AJ59" s="12"/>
       <c r="AK59" s="12"/>
       <c r="AL59" s="12"/>
-      <c r="AM59" s="12"/>
+      <c r="AM59" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AN59" s="12"/>
-      <c r="AO59" s="12"/>
+      <c r="AO59" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="AP59" s="12"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="4"/>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" ht="20" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>11</v>
@@ -6416,7 +6494,7 @@
       </c>
       <c r="AR60" s="4"/>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" ht="20" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="10"/>
@@ -6462,7 +6540,7 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="4"/>
     </row>
-    <row r="62" spans="1:44">
+    <row r="62" spans="1:44" ht="20" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="12"/>
@@ -6508,7 +6586,7 @@
       <c r="AQ62" s="1"/>
       <c r="AR62" s="4"/>
     </row>
-    <row r="63" spans="1:44">
+    <row r="63" spans="1:44" ht="20" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="12"/>
@@ -6554,7 +6632,7 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="4"/>
     </row>
-    <row r="64" spans="1:44">
+    <row r="64" spans="1:44" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -6585,11 +6663,11 @@
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
       <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
+      <c r="Y64" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Z64" s="10"/>
-      <c r="AA64" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
       <c r="AC64" s="10" t="s">
         <v>26</v>
@@ -6614,7 +6692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:44" ht="20" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="10"/>
@@ -6660,7 +6738,7 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="4"/>
     </row>
-    <row r="66" spans="1:44">
+    <row r="66" spans="1:44" ht="20" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="12"/>
@@ -6681,22 +6759,22 @@
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
-      <c r="U66" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="V66" s="12"/>
+      <c r="U66" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="V66" s="11"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="Y66" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
-      <c r="AC66" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD66" s="12"/>
+      <c r="AC66" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD66" s="11"/>
       <c r="AE66" s="12"/>
       <c r="AF66" s="12"/>
       <c r="AG66" s="12"/>
@@ -6712,7 +6790,7 @@
       <c r="AQ66" s="1"/>
       <c r="AR66" s="4"/>
     </row>
-    <row r="67" spans="1:44">
+    <row r="67" spans="1:44" ht="20" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="12"/>
@@ -6733,15 +6811,21 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
+      <c r="U67" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
+      <c r="Y67" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
+      <c r="AC67" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
       <c r="AF67" s="12"/>
@@ -6758,7 +6842,7 @@
       <c r="AQ67" s="1"/>
       <c r="AR67" s="4"/>
     </row>
-    <row r="68" spans="1:44">
+    <row r="68" spans="1:44" ht="20" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>9</v>
@@ -6767,9 +6851,7 @@
         <v>19</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
         <v>22</v>
@@ -6785,7 +6867,9 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
+      <c r="O68" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -6799,9 +6883,7 @@
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
-      <c r="AC68" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
       <c r="AF68" s="10"/>
@@ -6820,7 +6902,7 @@
       </c>
       <c r="AR68" s="4"/>
     </row>
-    <row r="69" spans="1:44">
+    <row r="69" spans="1:44" ht="20" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -6866,33 +6948,33 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="4"/>
     </row>
-    <row r="70" spans="1:44">
+    <row r="70" spans="1:44" ht="20" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L70" s="12"/>
+      <c r="L70" s="11"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
+      <c r="O70" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" s="11"/>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
@@ -6905,9 +6987,7 @@
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
-      <c r="AC70" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
       <c r="AF70" s="12"/>
@@ -6924,22 +7004,32 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="4"/>
     </row>
-    <row r="71" spans="1:44">
+    <row r="71" spans="1:44" ht="20" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
+      <c r="I71" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
+      <c r="K71" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
+      <c r="O71" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
@@ -6970,7 +7060,7 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="4"/>
     </row>
-    <row r="72" spans="1:44">
+    <row r="72" spans="1:44" ht="20" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -6997,7 +7087,9 @@
       <c r="V72" s="10"/>
       <c r="W72" s="10"/>
       <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
+      <c r="Y72" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -7011,9 +7103,7 @@
       <c r="AJ72" s="10"/>
       <c r="AK72" s="10"/>
       <c r="AL72" s="10"/>
-      <c r="AM72" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="AM72" s="10"/>
       <c r="AN72" s="10"/>
       <c r="AO72" s="10" t="s">
         <v>30</v>
@@ -7024,7 +7114,7 @@
       </c>
       <c r="AR72" s="4"/>
     </row>
-    <row r="73" spans="1:44">
+    <row r="73" spans="1:44" ht="20" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="10"/>
@@ -7070,7 +7160,7 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="4"/>
     </row>
-    <row r="74" spans="1:44">
+    <row r="74" spans="1:44" ht="20" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="12"/>
@@ -7095,8 +7185,10 @@
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
+      <c r="Y74" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z74" s="11"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
@@ -7109,18 +7201,16 @@
       <c r="AJ74" s="12"/>
       <c r="AK74" s="12"/>
       <c r="AL74" s="12"/>
-      <c r="AM74" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="AM74" s="12"/>
       <c r="AN74" s="12"/>
-      <c r="AO74" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP74" s="12"/>
+      <c r="AO74" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP74" s="11"/>
       <c r="AQ74" s="1"/>
       <c r="AR74" s="4"/>
     </row>
-    <row r="75" spans="1:44">
+    <row r="75" spans="1:44" ht="20" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="12"/>
@@ -7145,7 +7235,9 @@
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
+      <c r="Y75" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
       <c r="AB75" s="12"/>
@@ -7161,12 +7253,14 @@
       <c r="AL75" s="12"/>
       <c r="AM75" s="12"/>
       <c r="AN75" s="12"/>
-      <c r="AO75" s="12"/>
+      <c r="AO75" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AP75" s="12"/>
       <c r="AQ75" s="1"/>
       <c r="AR75" s="4"/>
     </row>
-    <row r="76" spans="1:44">
+    <row r="76" spans="1:44" ht="20" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>11</v>
@@ -7216,7 +7310,7 @@
       </c>
       <c r="AR76" s="4"/>
     </row>
-    <row r="77" spans="1:44">
+    <row r="77" spans="1:44" ht="20" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="10"/>
@@ -7262,7 +7356,7 @@
       <c r="AQ77" s="1"/>
       <c r="AR77" s="4"/>
     </row>
-    <row r="78" spans="1:44">
+    <row r="78" spans="1:44" ht="20" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="12"/>
@@ -7308,7 +7402,7 @@
       <c r="AQ78" s="1"/>
       <c r="AR78" s="4"/>
     </row>
-    <row r="79" spans="1:44">
+    <row r="79" spans="1:44" ht="20" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="12"/>
@@ -7354,7 +7448,7 @@
       <c r="AQ79" s="1"/>
       <c r="AR79" s="4"/>
     </row>
-    <row r="80" spans="1:44">
+    <row r="80" spans="1:44" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -7365,15 +7459,15 @@
         <v>19</v>
       </c>
       <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
+      <c r="E80" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
-      <c r="K80" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
@@ -7418,7 +7512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:44">
+    <row r="81" spans="1:44" ht="20" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="10"/>
@@ -7464,22 +7558,22 @@
       <c r="AQ81" s="1"/>
       <c r="AR81" s="4"/>
     </row>
-    <row r="82" spans="1:44">
+    <row r="82" spans="1:44" ht="20" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="C82" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="11"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
@@ -7493,10 +7587,10 @@
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
-      <c r="Y82" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z82" s="12"/>
+      <c r="Y82" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z82" s="11"/>
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
@@ -7505,14 +7599,14 @@
       <c r="AF82" s="12"/>
       <c r="AG82" s="12"/>
       <c r="AH82" s="12"/>
-      <c r="AI82" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ82" s="12"/>
-      <c r="AK82" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL82" s="12"/>
+      <c r="AI82" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ82" s="11"/>
+      <c r="AK82" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL82" s="11"/>
       <c r="AM82" s="12"/>
       <c r="AN82" s="12"/>
       <c r="AO82" s="12"/>
@@ -7520,12 +7614,16 @@
       <c r="AQ82" s="1"/>
       <c r="AR82" s="4"/>
     </row>
-    <row r="83" spans="1:44">
+    <row r="83" spans="1:44" ht="20" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="E83" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -7545,7 +7643,9 @@
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
-      <c r="Y83" s="12"/>
+      <c r="Y83" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
       <c r="AB83" s="12"/>
@@ -7555,9 +7655,13 @@
       <c r="AF83" s="12"/>
       <c r="AG83" s="12"/>
       <c r="AH83" s="12"/>
-      <c r="AI83" s="12"/>
+      <c r="AI83" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ83" s="12"/>
-      <c r="AK83" s="12"/>
+      <c r="AK83" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="AL83" s="12"/>
       <c r="AM83" s="12"/>
       <c r="AN83" s="12"/>
@@ -7566,30 +7670,30 @@
       <c r="AQ83" s="1"/>
       <c r="AR83" s="4"/>
     </row>
-    <row r="84" spans="1:44">
+    <row r="84" spans="1:44" ht="20" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="10"/>
+      <c r="C84" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="10"/>
-      <c r="I84" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
+      <c r="M84" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -7626,7 +7730,7 @@
       </c>
       <c r="AR84" s="4"/>
     </row>
-    <row r="85" spans="1:44">
+    <row r="85" spans="1:44" ht="20" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -7672,37 +7776,37 @@
       <c r="AQ85" s="1"/>
       <c r="AR85" s="4"/>
     </row>
-    <row r="86" spans="1:44">
+    <row r="86" spans="1:44" ht="20" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="C86" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="G86" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="12"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="K86" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N86" s="11"/>
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
-      <c r="S86" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T86" s="12"/>
+      <c r="S86" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T86" s="11"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
@@ -7728,26 +7832,36 @@
       <c r="AQ86" s="1"/>
       <c r="AR86" s="4"/>
     </row>
-    <row r="87" spans="1:44">
+    <row r="87" spans="1:44" ht="20" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="12"/>
+      <c r="C87" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
+      <c r="K87" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
+      <c r="M87" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
+      <c r="S87" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
@@ -7774,7 +7888,7 @@
       <c r="AQ87" s="1"/>
       <c r="AR87" s="4"/>
     </row>
-    <row r="88" spans="1:44">
+    <row r="88" spans="1:44" ht="20" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -7801,7 +7915,9 @@
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
       <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
+      <c r="Y88" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
@@ -7824,7 +7940,7 @@
       </c>
       <c r="AR88" s="4"/>
     </row>
-    <row r="89" spans="1:44">
+    <row r="89" spans="1:44" ht="20" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="10"/>
@@ -7870,7 +7986,7 @@
       <c r="AQ89" s="1"/>
       <c r="AR89" s="4"/>
     </row>
-    <row r="90" spans="1:44">
+    <row r="90" spans="1:44" ht="20" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="12"/>
@@ -7895,8 +8011,10 @@
       <c r="V90" s="12"/>
       <c r="W90" s="12"/>
       <c r="X90" s="12"/>
-      <c r="Y90" s="12"/>
-      <c r="Z90" s="12"/>
+      <c r="Y90" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z90" s="11"/>
       <c r="AA90" s="12"/>
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
@@ -7916,7 +8034,7 @@
       <c r="AQ90" s="1"/>
       <c r="AR90" s="4"/>
     </row>
-    <row r="91" spans="1:44">
+    <row r="91" spans="1:44" ht="20" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="12"/>
@@ -7941,7 +8059,9 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
-      <c r="Y91" s="12"/>
+      <c r="Y91" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
       <c r="AB91" s="12"/>
@@ -7962,7 +8082,7 @@
       <c r="AQ91" s="1"/>
       <c r="AR91" s="4"/>
     </row>
-    <row r="92" spans="1:44">
+    <row r="92" spans="1:44" ht="20" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>11</v>
@@ -8012,7 +8132,7 @@
       </c>
       <c r="AR92" s="4"/>
     </row>
-    <row r="93" spans="1:44">
+    <row r="93" spans="1:44" ht="20" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="10"/>
@@ -8058,7 +8178,7 @@
       <c r="AQ93" s="1"/>
       <c r="AR93" s="4"/>
     </row>
-    <row r="94" spans="1:44">
+    <row r="94" spans="1:44" ht="20" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="12"/>
@@ -8104,7 +8224,7 @@
       <c r="AQ94" s="1"/>
       <c r="AR94" s="4"/>
     </row>
-    <row r="95" spans="1:44">
+    <row r="95" spans="1:44" ht="20" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="12"/>
@@ -8150,7 +8270,7 @@
       <c r="AQ95" s="1"/>
       <c r="AR95" s="4"/>
     </row>
-    <row r="96" spans="1:44">
+    <row r="96" spans="1:44" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -8195,11 +8315,11 @@
       <c r="AJ96" s="10"/>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
-      <c r="AM96" s="10"/>
+      <c r="AM96" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AN96" s="10"/>
-      <c r="AO96" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="AO96" s="10"/>
       <c r="AP96" s="10"/>
       <c r="AQ96" s="1" t="s">
         <v>8</v>
@@ -8208,7 +8328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:44">
+    <row r="97" spans="1:44" ht="20" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="10"/>
@@ -8254,7 +8374,7 @@
       <c r="AQ97" s="1"/>
       <c r="AR97" s="4"/>
     </row>
-    <row r="98" spans="1:44">
+    <row r="98" spans="1:44" ht="20" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="12"/>
@@ -8287,24 +8407,24 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
       <c r="AF98" s="12"/>
-      <c r="AG98" s="12" t="s">
+      <c r="AG98" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AH98" s="12"/>
+      <c r="AH98" s="11"/>
       <c r="AI98" s="12"/>
       <c r="AJ98" s="12"/>
       <c r="AK98" s="12"/>
       <c r="AL98" s="12"/>
-      <c r="AM98" s="12"/>
-      <c r="AN98" s="12"/>
-      <c r="AO98" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="AM98" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN98" s="11"/>
+      <c r="AO98" s="12"/>
       <c r="AP98" s="12"/>
       <c r="AQ98" s="1"/>
       <c r="AR98" s="4"/>
     </row>
-    <row r="99" spans="1:44">
+    <row r="99" spans="1:44" ht="20" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="12"/>
@@ -8337,45 +8457,51 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
       <c r="AF99" s="12"/>
-      <c r="AG99" s="12"/>
+      <c r="AG99" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="AH99" s="12"/>
       <c r="AI99" s="12"/>
       <c r="AJ99" s="12"/>
       <c r="AK99" s="12"/>
       <c r="AL99" s="12"/>
-      <c r="AM99" s="12"/>
+      <c r="AM99" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="AN99" s="12"/>
       <c r="AO99" s="12"/>
       <c r="AP99" s="12"/>
       <c r="AQ99" s="1"/>
       <c r="AR99" s="4"/>
     </row>
-    <row r="100" spans="1:44">
+    <row r="100" spans="1:44" ht="20" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="10"/>
+      <c r="C100" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
+      <c r="K100" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
-      <c r="O100" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
+      <c r="Q100" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
       <c r="T100" s="10"/>
@@ -8387,11 +8513,11 @@
       <c r="Z100" s="10"/>
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
-      <c r="AC100" s="10"/>
+      <c r="AC100" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="AD100" s="10"/>
-      <c r="AE100" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="AE100" s="10"/>
       <c r="AF100" s="10"/>
       <c r="AG100" s="10"/>
       <c r="AH100" s="10"/>
@@ -8408,7 +8534,7 @@
       </c>
       <c r="AR100" s="4"/>
     </row>
-    <row r="101" spans="1:44">
+    <row r="101" spans="1:44" ht="20" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="10"/>
@@ -8454,31 +8580,33 @@
       <c r="AQ101" s="1"/>
       <c r="AR101" s="4"/>
     </row>
-    <row r="102" spans="1:44">
+    <row r="102" spans="1:44" ht="20" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="C102" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="11"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="G102" s="12"/>
       <c r="H102" s="12"/>
-      <c r="I102" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
+      <c r="I102" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L102" s="11"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
-      <c r="O102" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="O102" s="12"/>
       <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
+      <c r="Q102" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R102" s="11"/>
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
@@ -8489,11 +8617,11 @@
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
       <c r="AB102" s="12"/>
-      <c r="AC102" s="12"/>
-      <c r="AD102" s="12"/>
-      <c r="AE102" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="AC102" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD102" s="11"/>
+      <c r="AE102" s="12"/>
       <c r="AF102" s="12"/>
       <c r="AG102" s="12"/>
       <c r="AH102" s="12"/>
@@ -8508,24 +8636,32 @@
       <c r="AQ102" s="1"/>
       <c r="AR102" s="4"/>
     </row>
-    <row r="103" spans="1:44">
+    <row r="103" spans="1:44" ht="20" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="12"/>
+      <c r="C103" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
+      <c r="K103" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
+      <c r="Q103" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
@@ -8537,7 +8673,9 @@
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
       <c r="AB103" s="12"/>
-      <c r="AC103" s="12"/>
+      <c r="AC103" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
       <c r="AF103" s="12"/>
@@ -8554,7 +8692,7 @@
       <c r="AQ103" s="1"/>
       <c r="AR103" s="4"/>
     </row>
-    <row r="104" spans="1:44">
+    <row r="104" spans="1:44" ht="20" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -8604,7 +8742,7 @@
       </c>
       <c r="AR104" s="4"/>
     </row>
-    <row r="105" spans="1:44">
+    <row r="105" spans="1:44" ht="20" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="10"/>
@@ -8650,7 +8788,7 @@
       <c r="AQ105" s="1"/>
       <c r="AR105" s="4"/>
     </row>
-    <row r="106" spans="1:44">
+    <row r="106" spans="1:44" ht="20" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="12"/>
@@ -8696,7 +8834,7 @@
       <c r="AQ106" s="1"/>
       <c r="AR106" s="4"/>
     </row>
-    <row r="107" spans="1:44">
+    <row r="107" spans="1:44" ht="20" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="12"/>
@@ -8742,7 +8880,7 @@
       <c r="AQ107" s="1"/>
       <c r="AR107" s="4"/>
     </row>
-    <row r="108" spans="1:44">
+    <row r="108" spans="1:44" ht="20" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -8792,7 +8930,7 @@
       </c>
       <c r="AR108" s="4"/>
     </row>
-    <row r="109" spans="1:44">
+    <row r="109" spans="1:44" ht="20" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="10"/>
@@ -8838,7 +8976,7 @@
       <c r="AQ109" s="1"/>
       <c r="AR109" s="4"/>
     </row>
-    <row r="110" spans="1:44">
+    <row r="110" spans="1:44" ht="20" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="12"/>
@@ -8884,7 +9022,7 @@
       <c r="AQ110" s="1"/>
       <c r="AR110" s="4"/>
     </row>
-    <row r="111" spans="1:44">
+    <row r="111" spans="1:44" ht="20" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="12"/>
@@ -8931,7 +9069,7 @@
       <c r="AR111" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1044">
+  <mergeCells count="1113">
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="A16:A31"/>
@@ -9017,7 +9155,8 @@
     <mergeCell ref="AR80:AR95"/>
     <mergeCell ref="AR96:AR111"/>
     <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="C48:D49"/>
@@ -9025,21 +9164,28 @@
     <mergeCell ref="C64:D65"/>
     <mergeCell ref="C66:D67"/>
     <mergeCell ref="C80:D81"/>
-    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C96:D97"/>
     <mergeCell ref="C98:D99"/>
     <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C84:D85"/>
-    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
     <mergeCell ref="C100:D101"/>
-    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="C26:D27"/>
     <mergeCell ref="C40:D41"/>
@@ -9065,21 +9211,26 @@
     <mergeCell ref="C108:D109"/>
     <mergeCell ref="C110:D111"/>
     <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E32:F33"/>
-    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E48:F49"/>
     <mergeCell ref="E50:F51"/>
     <mergeCell ref="E64:F65"/>
     <mergeCell ref="E66:F67"/>
     <mergeCell ref="E80:F81"/>
-    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="E96:F97"/>
     <mergeCell ref="E98:F99"/>
     <mergeCell ref="E20:F21"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E36:F37"/>
-    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="E52:F53"/>
     <mergeCell ref="E54:F55"/>
     <mergeCell ref="E68:F69"/>
@@ -9113,9 +9264,11 @@
     <mergeCell ref="E108:F109"/>
     <mergeCell ref="E110:F111"/>
     <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G32:H33"/>
-    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G48:H49"/>
     <mergeCell ref="G50:H51"/>
     <mergeCell ref="G64:H65"/>
@@ -9127,13 +9280,17 @@
     <mergeCell ref="G20:H21"/>
     <mergeCell ref="G22:H23"/>
     <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="G52:H53"/>
-    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
     <mergeCell ref="G68:H69"/>
-    <mergeCell ref="G70:H71"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
     <mergeCell ref="G84:H85"/>
-    <mergeCell ref="G86:H87"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
     <mergeCell ref="G100:H101"/>
     <mergeCell ref="G102:H103"/>
     <mergeCell ref="G24:H25"/>
@@ -9177,15 +9334,19 @@
     <mergeCell ref="I36:J37"/>
     <mergeCell ref="I38:J39"/>
     <mergeCell ref="I52:J53"/>
-    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
     <mergeCell ref="I68:J69"/>
-    <mergeCell ref="I70:J71"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
     <mergeCell ref="I84:J85"/>
     <mergeCell ref="I86:J87"/>
     <mergeCell ref="I100:J101"/>
-    <mergeCell ref="I102:J103"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
     <mergeCell ref="I24:J25"/>
-    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="I40:J41"/>
     <mergeCell ref="I42:J43"/>
     <mergeCell ref="I56:J57"/>
@@ -9211,7 +9372,8 @@
     <mergeCell ref="K16:L17"/>
     <mergeCell ref="K18:L19"/>
     <mergeCell ref="K32:L33"/>
-    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="K48:L49"/>
     <mergeCell ref="K50:L51"/>
     <mergeCell ref="K64:L65"/>
@@ -9225,19 +9387,25 @@
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="K38:L39"/>
     <mergeCell ref="K52:L53"/>
-    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
     <mergeCell ref="K68:L69"/>
-    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
     <mergeCell ref="K84:L85"/>
-    <mergeCell ref="K86:L87"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
     <mergeCell ref="K100:L101"/>
-    <mergeCell ref="K102:L103"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
     <mergeCell ref="K24:L25"/>
     <mergeCell ref="K26:L27"/>
     <mergeCell ref="K40:L41"/>
-    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
     <mergeCell ref="K56:L57"/>
-    <mergeCell ref="K58:L59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
     <mergeCell ref="K72:L73"/>
     <mergeCell ref="K74:L75"/>
     <mergeCell ref="K88:L89"/>
@@ -9261,7 +9429,8 @@
     <mergeCell ref="M32:N33"/>
     <mergeCell ref="M34:N35"/>
     <mergeCell ref="M48:N49"/>
-    <mergeCell ref="M50:N51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
     <mergeCell ref="M64:N65"/>
     <mergeCell ref="M66:N67"/>
     <mergeCell ref="M80:N81"/>
@@ -9277,7 +9446,8 @@
     <mergeCell ref="M68:N69"/>
     <mergeCell ref="M70:N71"/>
     <mergeCell ref="M84:N85"/>
-    <mergeCell ref="M86:N87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
     <mergeCell ref="M100:N101"/>
     <mergeCell ref="M102:N103"/>
     <mergeCell ref="M24:N25"/>
@@ -9323,7 +9493,8 @@
     <mergeCell ref="O52:P53"/>
     <mergeCell ref="O54:P55"/>
     <mergeCell ref="O68:P69"/>
-    <mergeCell ref="O70:P71"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
     <mergeCell ref="O84:P85"/>
     <mergeCell ref="O86:P87"/>
     <mergeCell ref="O100:P101"/>
@@ -9365,9 +9536,11 @@
     <mergeCell ref="Q96:R97"/>
     <mergeCell ref="Q98:R99"/>
     <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q36:R37"/>
-    <mergeCell ref="Q38:R39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
     <mergeCell ref="Q52:R53"/>
     <mergeCell ref="Q54:R55"/>
     <mergeCell ref="Q68:R69"/>
@@ -9375,9 +9548,11 @@
     <mergeCell ref="Q84:R85"/>
     <mergeCell ref="Q86:R87"/>
     <mergeCell ref="Q100:R101"/>
-    <mergeCell ref="Q102:R103"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="Q103:R103"/>
     <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="Q26:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q40:R41"/>
     <mergeCell ref="Q42:R43"/>
     <mergeCell ref="Q56:R57"/>
@@ -9405,7 +9580,8 @@
     <mergeCell ref="S32:T33"/>
     <mergeCell ref="S34:T35"/>
     <mergeCell ref="S48:T49"/>
-    <mergeCell ref="S50:T51"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S51:T51"/>
     <mergeCell ref="S64:T65"/>
     <mergeCell ref="S66:T67"/>
     <mergeCell ref="S80:T81"/>
@@ -9413,7 +9589,8 @@
     <mergeCell ref="S96:T97"/>
     <mergeCell ref="S98:T99"/>
     <mergeCell ref="S20:T21"/>
-    <mergeCell ref="S22:T23"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
     <mergeCell ref="S36:T37"/>
     <mergeCell ref="S38:T39"/>
     <mergeCell ref="S52:T53"/>
@@ -9421,7 +9598,8 @@
     <mergeCell ref="S68:T69"/>
     <mergeCell ref="S70:T71"/>
     <mergeCell ref="S84:T85"/>
-    <mergeCell ref="S86:T87"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="S87:T87"/>
     <mergeCell ref="S100:T101"/>
     <mergeCell ref="S102:T103"/>
     <mergeCell ref="S24:T25"/>
@@ -9455,7 +9633,8 @@
     <mergeCell ref="U48:V49"/>
     <mergeCell ref="U50:V51"/>
     <mergeCell ref="U64:V65"/>
-    <mergeCell ref="U66:V67"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="U67:V67"/>
     <mergeCell ref="U80:V81"/>
     <mergeCell ref="U82:V83"/>
     <mergeCell ref="U96:V97"/>
@@ -9477,7 +9656,8 @@
     <mergeCell ref="U40:V41"/>
     <mergeCell ref="U42:V43"/>
     <mergeCell ref="U56:V57"/>
-    <mergeCell ref="U58:V59"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="U59:V59"/>
     <mergeCell ref="U72:V73"/>
     <mergeCell ref="U74:V75"/>
     <mergeCell ref="U88:V89"/>
@@ -9523,7 +9703,8 @@
     <mergeCell ref="W24:X25"/>
     <mergeCell ref="W26:X27"/>
     <mergeCell ref="W40:X41"/>
-    <mergeCell ref="W42:X43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="W43:X43"/>
     <mergeCell ref="W56:X57"/>
     <mergeCell ref="W58:X59"/>
     <mergeCell ref="W72:X73"/>
@@ -9551,9 +9732,11 @@
     <mergeCell ref="Y48:Z49"/>
     <mergeCell ref="Y50:Z51"/>
     <mergeCell ref="Y64:Z65"/>
-    <mergeCell ref="Y66:Z67"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="Y67:Z67"/>
     <mergeCell ref="Y80:Z81"/>
-    <mergeCell ref="Y82:Z83"/>
+    <mergeCell ref="Y82:Z82"/>
+    <mergeCell ref="Y83:Z83"/>
     <mergeCell ref="Y96:Z97"/>
     <mergeCell ref="Y98:Z99"/>
     <mergeCell ref="Y20:Z21"/>
@@ -9561,7 +9744,8 @@
     <mergeCell ref="Y36:Z37"/>
     <mergeCell ref="Y38:Z39"/>
     <mergeCell ref="Y52:Z53"/>
-    <mergeCell ref="Y54:Z55"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="Y55:Z55"/>
     <mergeCell ref="Y68:Z69"/>
     <mergeCell ref="Y70:Z71"/>
     <mergeCell ref="Y84:Z85"/>
@@ -9575,9 +9759,11 @@
     <mergeCell ref="Y56:Z57"/>
     <mergeCell ref="Y58:Z59"/>
     <mergeCell ref="Y72:Z73"/>
-    <mergeCell ref="Y74:Z75"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="Y75:Z75"/>
     <mergeCell ref="Y88:Z89"/>
-    <mergeCell ref="Y90:Z91"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Y91:Z91"/>
     <mergeCell ref="Y104:Z105"/>
     <mergeCell ref="Y106:Z107"/>
     <mergeCell ref="Y28:Z29"/>
@@ -9609,7 +9795,8 @@
     <mergeCell ref="AA36:AB37"/>
     <mergeCell ref="AA38:AB39"/>
     <mergeCell ref="AA52:AB53"/>
-    <mergeCell ref="AA54:AB55"/>
+    <mergeCell ref="AA54:AB54"/>
+    <mergeCell ref="AA55:AB55"/>
     <mergeCell ref="AA68:AB69"/>
     <mergeCell ref="AA70:AB71"/>
     <mergeCell ref="AA84:AB85"/>
@@ -9647,7 +9834,8 @@
     <mergeCell ref="AC48:AD49"/>
     <mergeCell ref="AC50:AD51"/>
     <mergeCell ref="AC64:AD65"/>
-    <mergeCell ref="AC66:AD67"/>
+    <mergeCell ref="AC66:AD66"/>
+    <mergeCell ref="AC67:AD67"/>
     <mergeCell ref="AC80:AD81"/>
     <mergeCell ref="AC82:AD83"/>
     <mergeCell ref="AC96:AD97"/>
@@ -9663,9 +9851,11 @@
     <mergeCell ref="AC84:AD85"/>
     <mergeCell ref="AC86:AD87"/>
     <mergeCell ref="AC100:AD101"/>
-    <mergeCell ref="AC102:AD103"/>
+    <mergeCell ref="AC102:AD102"/>
+    <mergeCell ref="AC103:AD103"/>
     <mergeCell ref="AC24:AD25"/>
-    <mergeCell ref="AC26:AD27"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
     <mergeCell ref="AC40:AD41"/>
     <mergeCell ref="AC42:AD43"/>
     <mergeCell ref="AC56:AD57"/>
@@ -9715,7 +9905,8 @@
     <mergeCell ref="AE24:AF25"/>
     <mergeCell ref="AE26:AF27"/>
     <mergeCell ref="AE40:AF41"/>
-    <mergeCell ref="AE42:AF43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AE56:AF57"/>
     <mergeCell ref="AE58:AF59"/>
     <mergeCell ref="AE72:AF73"/>
@@ -9747,9 +9938,11 @@
     <mergeCell ref="AG80:AH81"/>
     <mergeCell ref="AG82:AH83"/>
     <mergeCell ref="AG96:AH97"/>
-    <mergeCell ref="AG98:AH99"/>
+    <mergeCell ref="AG98:AH98"/>
+    <mergeCell ref="AG99:AH99"/>
     <mergeCell ref="AG20:AH21"/>
-    <mergeCell ref="AG22:AH23"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG23:AH23"/>
     <mergeCell ref="AG36:AH37"/>
     <mergeCell ref="AG38:AH39"/>
     <mergeCell ref="AG52:AH53"/>
@@ -9793,15 +9986,19 @@
     <mergeCell ref="AI64:AJ65"/>
     <mergeCell ref="AI66:AJ67"/>
     <mergeCell ref="AI80:AJ81"/>
-    <mergeCell ref="AI82:AJ83"/>
+    <mergeCell ref="AI82:AJ82"/>
+    <mergeCell ref="AI83:AJ83"/>
     <mergeCell ref="AI96:AJ97"/>
     <mergeCell ref="AI98:AJ99"/>
     <mergeCell ref="AI20:AJ21"/>
-    <mergeCell ref="AI22:AJ23"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AI23:AJ23"/>
     <mergeCell ref="AI36:AJ37"/>
-    <mergeCell ref="AI38:AJ39"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AI39:AJ39"/>
     <mergeCell ref="AI52:AJ53"/>
-    <mergeCell ref="AI54:AJ55"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AI55:AJ55"/>
     <mergeCell ref="AI68:AJ69"/>
     <mergeCell ref="AI70:AJ71"/>
     <mergeCell ref="AI84:AJ85"/>
@@ -9837,17 +10034,20 @@
     <mergeCell ref="AK32:AL33"/>
     <mergeCell ref="AK34:AL35"/>
     <mergeCell ref="AK48:AL49"/>
-    <mergeCell ref="AK50:AL51"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AK64:AL65"/>
     <mergeCell ref="AK66:AL67"/>
     <mergeCell ref="AK80:AL81"/>
-    <mergeCell ref="AK82:AL83"/>
+    <mergeCell ref="AK82:AL82"/>
+    <mergeCell ref="AK83:AL83"/>
     <mergeCell ref="AK96:AL97"/>
     <mergeCell ref="AK98:AL99"/>
     <mergeCell ref="AK20:AL21"/>
     <mergeCell ref="AK22:AL23"/>
     <mergeCell ref="AK36:AL37"/>
-    <mergeCell ref="AK38:AL39"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AK39:AL39"/>
     <mergeCell ref="AK52:AL53"/>
     <mergeCell ref="AK54:AL55"/>
     <mergeCell ref="AK68:AL69"/>
@@ -9891,11 +10091,13 @@
     <mergeCell ref="AM80:AN81"/>
     <mergeCell ref="AM82:AN83"/>
     <mergeCell ref="AM96:AN97"/>
-    <mergeCell ref="AM98:AN99"/>
+    <mergeCell ref="AM98:AN98"/>
+    <mergeCell ref="AM99:AN99"/>
     <mergeCell ref="AM20:AN21"/>
     <mergeCell ref="AM22:AN23"/>
     <mergeCell ref="AM36:AN37"/>
-    <mergeCell ref="AM38:AN39"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AM39:AN39"/>
     <mergeCell ref="AM52:AN53"/>
     <mergeCell ref="AM54:AN55"/>
     <mergeCell ref="AM68:AN69"/>
@@ -9905,11 +10107,14 @@
     <mergeCell ref="AM100:AN101"/>
     <mergeCell ref="AM102:AN103"/>
     <mergeCell ref="AM24:AN25"/>
-    <mergeCell ref="AM26:AN27"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM27:AN27"/>
     <mergeCell ref="AM40:AN41"/>
-    <mergeCell ref="AM42:AN43"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AM43:AN43"/>
     <mergeCell ref="AM56:AN57"/>
-    <mergeCell ref="AM58:AN59"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AM59:AN59"/>
     <mergeCell ref="AM72:AN73"/>
     <mergeCell ref="AM74:AN75"/>
     <mergeCell ref="AM88:AN89"/>
@@ -9957,9 +10162,11 @@
     <mergeCell ref="AO40:AP41"/>
     <mergeCell ref="AO42:AP43"/>
     <mergeCell ref="AO56:AP57"/>
-    <mergeCell ref="AO58:AP59"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AO59:AP59"/>
     <mergeCell ref="AO72:AP73"/>
-    <mergeCell ref="AO74:AP75"/>
+    <mergeCell ref="AO74:AP74"/>
+    <mergeCell ref="AO75:AP75"/>
     <mergeCell ref="AO88:AP89"/>
     <mergeCell ref="AO90:AP91"/>
     <mergeCell ref="AO104:AP105"/>

--- a/Schedule_maker/static/xlsx/schedule.xlsx
+++ b/Schedule_maker/static/xlsx/schedule.xlsx
@@ -77,7 +77,7 @@
     <t>Алгоритмы и структуры данных</t>
   </si>
   <si>
-    <t>Kaitlyn Allen</t>
+    <t>Jeffrey Perez</t>
   </si>
   <si>
     <t>306</t>
@@ -86,49 +86,52 @@
     <t>math</t>
   </si>
   <si>
-    <t>Victoria Baker</t>
+    <t>Stephen Bennett</t>
   </si>
   <si>
     <t>science</t>
   </si>
   <si>
-    <t>Erica Romero</t>
+    <t>Darryl Rivas</t>
   </si>
   <si>
     <t>geography</t>
   </si>
   <si>
-    <t>Marie Petersen</t>
+    <t>Heather Reyes</t>
   </si>
   <si>
     <t>I.T.</t>
   </si>
   <si>
-    <t>Emily Smith</t>
+    <t>John Lawson</t>
   </si>
   <si>
     <t>biology</t>
   </si>
   <si>
-    <t>Steven Hunter</t>
+    <t>Eric Payne</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>Raymond Robinson</t>
+    <t>Robert Preston</t>
   </si>
   <si>
     <t>325</t>
   </si>
   <si>
+    <t>Allison Martinez</t>
+  </si>
+  <si>
+    <t>Taylor Ingram</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Scott Pollard</t>
-  </si>
-  <si>
-    <t>Betty Newman</t>
+    <t>David Gibbs</t>
   </si>
   <si>
     <t>329</t>
@@ -137,22 +140,19 @@
     <t>326</t>
   </si>
   <si>
-    <t>Daniel Fowler</t>
+    <t>James Roberts</t>
   </si>
   <si>
     <t>407</t>
   </si>
   <si>
+    <t>Jason Gentry</t>
+  </si>
+  <si>
     <t>420</t>
   </si>
   <si>
-    <t>Christopher Stewart</t>
-  </si>
-  <si>
     <t>327</t>
-  </si>
-  <si>
-    <t>Ashley Gross</t>
   </si>
   <si>
     <t>507</t>
@@ -161,49 +161,52 @@
     <t>art</t>
   </si>
   <si>
-    <t>Patricia Odom</t>
+    <t>Alex Hawkins</t>
   </si>
   <si>
     <t>history</t>
   </si>
   <si>
-    <t>William Duncan</t>
+    <t>Ricky Morales</t>
   </si>
   <si>
     <t>music</t>
   </si>
   <si>
-    <t>Daniel Diaz</t>
+    <t>James Bauer</t>
   </si>
   <si>
     <t>P.E.</t>
   </si>
   <si>
-    <t>Eric Butler</t>
+    <t>Karen Huff</t>
   </si>
   <si>
-    <t>Denise Bowman</t>
+    <t>Steven Swanson</t>
+  </si>
+  <si>
+    <t>Jessica Wolf</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>Aaron Maddox</t>
-  </si>
-  <si>
-    <t>James Miller</t>
-  </si>
-  <si>
-    <t>Gregory Hendricks</t>
+    <t>Rebecca Delacruz</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
+    <t>Linda Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10702122 10702222</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10702322 10702422</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10702322</t>
+    <t xml:space="preserve"> 10702422</t>
   </si>
   <si>
     <t xml:space="preserve"> 10701222</t>
@@ -212,22 +215,19 @@
     <t xml:space="preserve"> 10701322</t>
   </si>
   <si>
+    <t xml:space="preserve"> 10701122 10701222 10701322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10702322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10701122</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10702122</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122 10701222 10701322</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702122 10702222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701122</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702122 10702222 10702322 10702422</t>
@@ -820,13 +820,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -870,13 +870,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -902,7 +902,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -973,16 +973,16 @@
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G22" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="5" t="s">
@@ -1005,16 +1005,16 @@
         <v>32</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="6" t="s">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
@@ -1086,15 +1086,15 @@
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
@@ -1118,15 +1118,15 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="9"/>
@@ -1238,13 +1238,13 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -1288,13 +1288,13 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -1320,7 +1320,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -1342,7 +1342,9 @@
       <c r="E36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="G36" s="7" t="s">
         <v>24</v>
       </c>
@@ -1353,10 +1355,10 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" s="7"/>
+      <c r="M36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="10"/>
       <c r="O36" s="10" t="s">
         <v>22</v>
       </c>
@@ -1379,8 +1381,8 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="1"/>
@@ -1393,28 +1395,30 @@
         <v>20</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="G38" s="8" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="9"/>
+      <c r="M38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="11"/>
       <c r="O38" s="11" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="1"/>
@@ -1427,14 +1431,16 @@
         <v>32</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G39" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="6" t="s">
@@ -1443,12 +1449,12 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="9"/>
+      <c r="M39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="12"/>
       <c r="O39" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="1"/>
@@ -1461,24 +1467,24 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+      <c r="M40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="10"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="1" t="s">
@@ -1491,16 +1497,16 @@
       <c r="B41" s="1"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="1"/>
@@ -1511,24 +1517,24 @@
       <c r="B42" s="1"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="L42" s="11"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="M42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="11"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="1"/>
@@ -1539,24 +1545,24 @@
       <c r="B43" s="1"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L43" s="12"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="M43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="12"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="1"/>
@@ -1662,7 +1668,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -1712,7 +1718,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -1744,7 +1750,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -1761,30 +1767,30 @@
         <v>22</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="7"/>
+      <c r="E52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="10"/>
       <c r="G52" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="10" t="s">
+      <c r="K52" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="7"/>
       <c r="Q52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1795,18 +1801,18 @@
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="4"/>
     </row>
@@ -1817,30 +1823,30 @@
         <v>33</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="9"/>
+      <c r="E54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="11"/>
       <c r="G54" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L54" s="9"/>
-      <c r="M54" s="11" t="s">
+      <c r="K54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P54" s="11"/>
+      <c r="P54" s="9"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="4"/>
     </row>
@@ -1851,30 +1857,30 @@
         <v>34</v>
       </c>
       <c r="D55" s="12"/>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L55" s="9"/>
-      <c r="M55" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P55" s="12"/>
+      <c r="K55" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" s="9"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="4"/>
     </row>
@@ -1891,20 +1897,20 @@
         <v>30</v>
       </c>
       <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="10"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N56" s="10"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
+      <c r="O56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="10"/>
       <c r="Q56" s="1" t="s">
         <v>10</v>
       </c>
@@ -1919,14 +1925,14 @@
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="4"/>
     </row>
@@ -1938,23 +1944,23 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="I58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J58" s="11"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N58" s="11"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
+      <c r="O58" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" s="11"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="4"/>
     </row>
@@ -1969,20 +1975,20 @@
         <v>34</v>
       </c>
       <c r="H59" s="12"/>
-      <c r="I59" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J59" s="12"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N59" s="12"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
+      <c r="O59" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P59" s="12"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="4"/>
     </row>
@@ -2142,7 +2148,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -2168,7 +2174,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
@@ -2197,14 +2203,18 @@
         <v>47</v>
       </c>
       <c r="J68" s="10"/>
-      <c r="K68" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L68" s="10"/>
+      <c r="K68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
+      <c r="O68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P68" s="10"/>
       <c r="Q68" s="1" t="s">
         <v>9</v>
       </c>
@@ -2221,12 +2231,12 @@
       <c r="H69" s="7"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="4"/>
     </row>
@@ -2242,21 +2252,25 @@
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J70" s="11"/>
-      <c r="K70" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L70" s="11"/>
+      <c r="K70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
+      <c r="O70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" s="11"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="4"/>
     </row>
@@ -2268,7 +2282,7 @@
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="9" t="s">
@@ -2276,17 +2290,21 @@
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J71" s="12"/>
-      <c r="K71" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L71" s="12"/>
+      <c r="K71" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
+      <c r="O71" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P71" s="12"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="4"/>
     </row>
@@ -2304,13 +2322,11 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L72" s="10"/>
-      <c r="M72" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N72" s="10"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="1" t="s">
@@ -2331,8 +2347,8 @@
       <c r="J73" s="7"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="1"/>
@@ -2350,13 +2366,11 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L74" s="11"/>
-      <c r="M74" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N74" s="11"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="1"/>
@@ -2377,10 +2391,8 @@
         <v>34</v>
       </c>
       <c r="L75" s="12"/>
-      <c r="M75" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N75" s="12"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="1"/>
@@ -2494,13 +2506,13 @@
       <c r="M80" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N80" s="7"/>
+      <c r="N80" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="O80" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P80" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="P80" s="7"/>
       <c r="Q80" s="1" t="s">
         <v>8</v>
       </c>
@@ -2546,15 +2558,15 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N82" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="O82" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P82" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P82" s="9"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="4"/>
     </row>
@@ -2578,13 +2590,13 @@
       <c r="M83" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N83" s="9"/>
+      <c r="N83" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="O83" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P83" s="9"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="4"/>
     </row>
@@ -2598,21 +2610,19 @@
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="10"/>
-      <c r="I84" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" s="7"/>
-      <c r="K84" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L84" s="10"/>
+      <c r="I84" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J84" s="10"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
@@ -2631,10 +2641,10 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
@@ -2646,25 +2656,23 @@
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H86" s="11"/>
-      <c r="I86" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L86" s="11"/>
+      <c r="I86" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J86" s="11"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
@@ -2680,21 +2688,19 @@
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H87" s="12"/>
-      <c r="I87" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J87" s="9"/>
-      <c r="K87" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L87" s="12"/>
+      <c r="I87" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" s="12"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
@@ -2715,14 +2721,14 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="K88" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88" s="10"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P88" s="10"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
       <c r="Q88" s="1" t="s">
         <v>10</v>
       </c>
@@ -2739,12 +2745,12 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="4"/>
     </row>
@@ -2759,14 +2765,14 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
+      <c r="K90" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="11"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
-      <c r="O90" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P90" s="11"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="4"/>
     </row>
@@ -2781,14 +2787,14 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
+      <c r="K91" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L91" s="12"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
-      <c r="O91" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P91" s="12"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="4"/>
     </row>
@@ -2986,7 +2992,7 @@
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
@@ -2994,12 +3000,10 @@
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J100" s="10"/>
-      <c r="K100" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
@@ -3038,20 +3042,18 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J102" s="11"/>
-      <c r="K102" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -3068,20 +3070,18 @@
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J103" s="12"/>
-      <c r="K103" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
@@ -3414,7 +3414,9 @@
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E68:F69"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="E71:F71"/>
@@ -3427,9 +3429,8 @@
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="E72:E73"/>
@@ -3452,9 +3453,8 @@
     <mergeCell ref="E110:E111"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="F72:F73"/>
@@ -3566,7 +3566,9 @@
     <mergeCell ref="I68:J69"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I84:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
     <mergeCell ref="I100:J101"/>
     <mergeCell ref="I102:J102"/>
     <mergeCell ref="I103:J103"/>
@@ -3576,9 +3578,8 @@
     <mergeCell ref="I40:J41"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="I74:I75"/>
     <mergeCell ref="I88:I89"/>
@@ -3598,9 +3599,8 @@
     <mergeCell ref="I108:I109"/>
     <mergeCell ref="I110:I111"/>
     <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
     <mergeCell ref="J72:J73"/>
     <mergeCell ref="J74:J75"/>
     <mergeCell ref="J88:J89"/>
@@ -3619,14 +3619,14 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="J108:J109"/>
     <mergeCell ref="J110:J111"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K68:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K84:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K86:K87"/>
     <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="K40:L41"/>
@@ -3638,8 +3638,9 @@
     <mergeCell ref="K72:L73"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K88:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
     <mergeCell ref="K104:K105"/>
     <mergeCell ref="K106:K107"/>
     <mergeCell ref="K28:K29"/>
@@ -3654,14 +3655,13 @@
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="K108:K109"/>
     <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
     <mergeCell ref="L100:L101"/>
     <mergeCell ref="L102:L103"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L90:L91"/>
     <mergeCell ref="L104:L105"/>
     <mergeCell ref="L106:L107"/>
     <mergeCell ref="L28:L29"/>
@@ -3689,10 +3689,11 @@
     <mergeCell ref="M66:P66"/>
     <mergeCell ref="M67:P67"/>
     <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M36:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="M54:M55"/>
     <mergeCell ref="M68:M69"/>
     <mergeCell ref="M70:M71"/>
     <mergeCell ref="M84:M85"/>
@@ -3701,14 +3702,14 @@
     <mergeCell ref="M102:M103"/>
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="M56:N57"/>
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M72:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="M74:M75"/>
     <mergeCell ref="M88:M89"/>
     <mergeCell ref="M90:M91"/>
     <mergeCell ref="M104:M105"/>
@@ -3726,9 +3727,8 @@
     <mergeCell ref="M108:M109"/>
     <mergeCell ref="M110:M111"/>
     <mergeCell ref="N80:N81"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N55"/>
     <mergeCell ref="N68:N69"/>
     <mergeCell ref="N70:N71"/>
     <mergeCell ref="N84:N85"/>
@@ -3737,8 +3737,8 @@
     <mergeCell ref="N102:N103"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="N74:N75"/>
     <mergeCell ref="N88:N89"/>
     <mergeCell ref="N90:N91"/>
     <mergeCell ref="N104:N105"/>
@@ -3759,11 +3759,10 @@
     <mergeCell ref="O36:P37"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O52:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O68:P69"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
     <mergeCell ref="O84:O85"/>
     <mergeCell ref="O86:O87"/>
     <mergeCell ref="O100:O101"/>
@@ -3772,13 +3771,13 @@
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="O42:O43"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
     <mergeCell ref="O72:O73"/>
     <mergeCell ref="O74:O75"/>
-    <mergeCell ref="O88:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O88:O89"/>
+    <mergeCell ref="O90:O91"/>
     <mergeCell ref="O104:O105"/>
     <mergeCell ref="O106:O107"/>
     <mergeCell ref="O28:O29"/>
@@ -3794,8 +3793,9 @@
     <mergeCell ref="O108:O109"/>
     <mergeCell ref="O110:O111"/>
     <mergeCell ref="P80:P81"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="P54:P55"/>
     <mergeCell ref="P84:P85"/>
     <mergeCell ref="P86:P87"/>
     <mergeCell ref="P100:P101"/>
@@ -3804,10 +3804,10 @@
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P40:P41"/>
     <mergeCell ref="P42:P43"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="P58:P59"/>
     <mergeCell ref="P72:P73"/>
     <mergeCell ref="P74:P75"/>
+    <mergeCell ref="P88:P89"/>
+    <mergeCell ref="P90:P91"/>
     <mergeCell ref="P104:P105"/>
     <mergeCell ref="P106:P107"/>
     <mergeCell ref="P28:P29"/>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -3856,15 +3856,15 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
@@ -3876,11 +3876,11 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
@@ -3888,15 +3888,15 @@
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
@@ -3912,11 +3912,11 @@
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1" t="s">
@@ -4133,13 +4133,13 @@
         <v>19</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -4232,17 +4232,17 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="K18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -4280,20 +4280,20 @@
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -4375,11 +4375,11 @@
         <v>53</v>
       </c>
       <c r="AH20" s="10"/>
-      <c r="AI20" s="10" t="s">
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
@@ -4440,11 +4440,11 @@
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
@@ -4458,11 +4458,11 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T22" s="11"/>
       <c r="U22" s="12"/>
@@ -4481,12 +4481,12 @@
         <v>71</v>
       </c>
       <c r="AH22" s="11"/>
-      <c r="AI22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL22" s="11"/>
       <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
       <c r="AO22" s="12"/>
@@ -4498,7 +4498,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
@@ -4516,11 +4516,11 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R23" s="12"/>
       <c r="S23" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
@@ -4539,11 +4539,11 @@
         <v>21</v>
       </c>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="AI23" s="12"/>
       <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
+      <c r="AK23" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
@@ -4563,11 +4563,11 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
@@ -4587,9 +4587,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
-      <c r="AC24" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
@@ -4603,7 +4601,9 @@
         <v>30</v>
       </c>
       <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
+      <c r="AO24" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AP24" s="10"/>
       <c r="AQ24" s="1" t="s">
         <v>10</v>
@@ -4665,18 +4665,18 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="11"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
@@ -4689,10 +4689,8 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD26" s="11"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
@@ -4702,11 +4700,13 @@
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AN26" s="11"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
+      <c r="AO26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP26" s="11"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="4"/>
     </row>
@@ -4719,18 +4719,18 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
@@ -4743,9 +4743,7 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-      <c r="AC27" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
@@ -4756,10 +4754,12 @@
       <c r="AK27" s="12"/>
       <c r="AL27" s="12"/>
       <c r="AM27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="4"/>
@@ -4959,23 +4959,23 @@
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="M32" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
@@ -5061,24 +5061,24 @@
     <row r="34" spans="1:44" ht="20" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="11" t="s">
+      <c r="C34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -5113,23 +5113,23 @@
     <row r="35" spans="1:44" ht="20" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
@@ -5181,7 +5181,9 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -5215,11 +5217,11 @@
         <v>28</v>
       </c>
       <c r="AL36" s="10"/>
-      <c r="AM36" s="10" t="s">
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AN36" s="10"/>
-      <c r="AO36" s="10"/>
       <c r="AP36" s="10"/>
       <c r="AQ36" s="1" t="s">
         <v>9</v>
@@ -5276,27 +5278,29 @@
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="K38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
@@ -5316,19 +5320,19 @@
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
       <c r="AI38" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AL38" s="11"/>
-      <c r="AM38" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="12"/>
-      <c r="AP38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP38" s="11"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="4"/>
     </row>
@@ -5336,7 +5340,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12" t="s">
@@ -5344,19 +5348,21 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
@@ -5376,18 +5382,18 @@
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
       <c r="AI39" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ39" s="12"/>
       <c r="AK39" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AL39" s="12"/>
-      <c r="AM39" s="12" t="s">
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AN39" s="12"/>
-      <c r="AO39" s="12"/>
       <c r="AP39" s="12"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="4"/>
@@ -5401,7 +5407,9 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -5419,19 +5427,19 @@
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
-      <c r="W40" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="W40" s="10"/>
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
+      <c r="AA40" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
+      <c r="AC40" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="AD40" s="10"/>
-      <c r="AE40" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
@@ -5439,9 +5447,7 @@
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
       <c r="AL40" s="10"/>
-      <c r="AM40" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="AM40" s="10"/>
       <c r="AN40" s="10"/>
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
@@ -5503,12 +5509,14 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="11"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
@@ -5521,30 +5529,28 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X42" s="11"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF42" s="11"/>
+      <c r="AA42" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
       <c r="AG42" s="12"/>
       <c r="AH42" s="12"/>
       <c r="AI42" s="12"/>
       <c r="AJ42" s="12"/>
       <c r="AK42" s="12"/>
       <c r="AL42" s="12"/>
-      <c r="AM42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN42" s="11"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
       <c r="AO42" s="12"/>
       <c r="AP42" s="12"/>
       <c r="AQ42" s="1"/>
@@ -5557,12 +5563,14 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
@@ -5575,19 +5583,19 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
+      <c r="AA43" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
+      <c r="AC43" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
       <c r="AG43" s="12"/>
       <c r="AH43" s="12"/>
@@ -5595,9 +5603,7 @@
       <c r="AJ43" s="12"/>
       <c r="AK43" s="12"/>
       <c r="AL43" s="12"/>
-      <c r="AM43" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AM43" s="12"/>
       <c r="AN43" s="12"/>
       <c r="AO43" s="12"/>
       <c r="AP43" s="12"/>
@@ -5805,21 +5811,21 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="I48" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
+      <c r="Q48" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="R48" s="10"/>
-      <c r="S48" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
@@ -5835,11 +5841,11 @@
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
       <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
+      <c r="AI48" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ48" s="10"/>
-      <c r="AK48" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="AK48" s="10"/>
       <c r="AL48" s="10"/>
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
@@ -5907,22 +5913,22 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="I50" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="11"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N50" s="11"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="T50" s="11"/>
+      <c r="Q50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50" s="11"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
@@ -5937,12 +5943,12 @@
       <c r="AF50" s="12"/>
       <c r="AG50" s="12"/>
       <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL50" s="11"/>
+      <c r="AI50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
       <c r="AM50" s="12"/>
       <c r="AN50" s="12"/>
       <c r="AO50" s="12"/>
@@ -5959,21 +5965,21 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
-      <c r="M51" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
+      <c r="Q51" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="R51" s="12"/>
-      <c r="S51" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
@@ -5989,11 +5995,11 @@
       <c r="AF51" s="12"/>
       <c r="AG51" s="12"/>
       <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
+      <c r="AI51" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="AK51" s="12"/>
       <c r="AL51" s="12"/>
       <c r="AM51" s="12"/>
       <c r="AN51" s="12"/>
@@ -6011,7 +6017,9 @@
         <v>19</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
         <v>22</v>
@@ -6037,9 +6045,7 @@
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
-      <c r="Y52" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10" t="s">
         <v>51</v>
@@ -6051,11 +6057,11 @@
       <c r="AF52" s="10"/>
       <c r="AG52" s="10"/>
       <c r="AH52" s="10"/>
-      <c r="AI52" s="10" t="s">
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ52" s="10"/>
-      <c r="AK52" s="10"/>
       <c r="AL52" s="10"/>
       <c r="AM52" s="10"/>
       <c r="AN52" s="10"/>
@@ -6116,21 +6122,23 @@
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="11"/>
       <c r="G54" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="12"/>
@@ -6145,12 +6153,10 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
-      <c r="Y54" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z54" s="11"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AB54" s="11"/>
       <c r="AC54" s="12"/>
@@ -6159,12 +6165,12 @@
       <c r="AF54" s="12"/>
       <c r="AG54" s="12"/>
       <c r="AH54" s="12"/>
-      <c r="AI54" s="11" t="s">
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
+      <c r="AL54" s="11"/>
       <c r="AM54" s="12"/>
       <c r="AN54" s="12"/>
       <c r="AO54" s="12"/>
@@ -6176,21 +6182,23 @@
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
@@ -6205,12 +6213,10 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
-      <c r="Y55" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
@@ -6219,11 +6225,11 @@
       <c r="AF55" s="12"/>
       <c r="AG55" s="12"/>
       <c r="AH55" s="12"/>
-      <c r="AI55" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AI55" s="12"/>
       <c r="AJ55" s="12"/>
-      <c r="AK55" s="12"/>
+      <c r="AK55" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="AL55" s="12"/>
       <c r="AM55" s="12"/>
       <c r="AN55" s="12"/>
@@ -6249,7 +6255,9 @@
         <v>22</v>
       </c>
       <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="M56" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -6257,13 +6265,13 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
-      <c r="U56" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="U56" s="10"/>
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
+      <c r="Y56" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -6277,9 +6285,7 @@
       <c r="AJ56" s="10"/>
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
-      <c r="AM56" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="AM56" s="10"/>
       <c r="AN56" s="10"/>
       <c r="AO56" s="10" t="s">
         <v>30</v>
@@ -6348,25 +6354,27 @@
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L58" s="11"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
+      <c r="M58" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58" s="11"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
+      <c r="Y58" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z58" s="11"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
@@ -6379,10 +6387,8 @@
       <c r="AJ58" s="12"/>
       <c r="AK58" s="12"/>
       <c r="AL58" s="12"/>
-      <c r="AM58" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN58" s="11"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
       <c r="AO58" s="11" t="s">
         <v>65</v>
       </c>
@@ -6402,10 +6408,12 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
+      <c r="M59" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
@@ -6413,13 +6421,13 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
-      <c r="U59" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="U59" s="12"/>
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
+      <c r="Y59" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
       <c r="AB59" s="12"/>
@@ -6433,12 +6441,10 @@
       <c r="AJ59" s="12"/>
       <c r="AK59" s="12"/>
       <c r="AL59" s="12"/>
-      <c r="AM59" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AM59" s="12"/>
       <c r="AN59" s="12"/>
       <c r="AO59" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AP59" s="12"/>
       <c r="AQ59" s="1"/>
@@ -6760,19 +6766,19 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="V66" s="11"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
       <c r="Y66" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z66" s="11"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
       <c r="AC66" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD66" s="11"/>
       <c r="AE66" s="12"/>
@@ -6818,7 +6824,7 @@
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
       <c r="Y67" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
@@ -6851,7 +6857,9 @@
         <v>19</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
         <v>22</v>
@@ -6881,7 +6889,9 @@
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
+      <c r="AA68" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="AB68" s="10"/>
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
@@ -6952,27 +6962,29 @@
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="E70" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="11"/>
       <c r="G70" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
       <c r="O70" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P70" s="11"/>
       <c r="Q70" s="12"/>
@@ -6985,8 +6997,10 @@
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
+      <c r="AA70" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB70" s="11"/>
       <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
@@ -7011,24 +7025,26 @@
         <v>32</v>
       </c>
       <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="E71" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
       <c r="O71" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -7041,7 +7057,9 @@
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
+      <c r="AA71" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="AB71" s="12"/>
       <c r="AC71" s="12"/>
       <c r="AD71" s="12"/>
@@ -7085,11 +7103,11 @@
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
       <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
+      <c r="W72" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="X72" s="10"/>
-      <c r="Y72" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -7105,9 +7123,7 @@
       <c r="AL72" s="10"/>
       <c r="AM72" s="10"/>
       <c r="AN72" s="10"/>
-      <c r="AO72" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="AO72" s="10"/>
       <c r="AP72" s="10"/>
       <c r="AQ72" s="1" t="s">
         <v>10</v>
@@ -7183,12 +7199,12 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z74" s="11"/>
+      <c r="W74" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
@@ -7203,10 +7219,8 @@
       <c r="AL74" s="12"/>
       <c r="AM74" s="12"/>
       <c r="AN74" s="12"/>
-      <c r="AO74" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP74" s="11"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
       <c r="AQ74" s="1"/>
       <c r="AR74" s="4"/>
     </row>
@@ -7233,11 +7247,11 @@
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
+      <c r="W75" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="X75" s="12"/>
-      <c r="Y75" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="Y75" s="12"/>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
       <c r="AB75" s="12"/>
@@ -7253,9 +7267,7 @@
       <c r="AL75" s="12"/>
       <c r="AM75" s="12"/>
       <c r="AN75" s="12"/>
-      <c r="AO75" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AO75" s="12"/>
       <c r="AP75" s="12"/>
       <c r="AQ75" s="1"/>
       <c r="AR75" s="4"/>
@@ -7481,11 +7493,11 @@
       <c r="V80" s="10"/>
       <c r="W80" s="10"/>
       <c r="X80" s="10"/>
-      <c r="Y80" s="10" t="s">
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
@@ -7562,11 +7574,11 @@
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="12"/>
@@ -7587,12 +7599,12 @@
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
-      <c r="Y82" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="12"/>
-      <c r="AB82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB82" s="11"/>
       <c r="AC82" s="12"/>
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
@@ -7600,7 +7612,7 @@
       <c r="AG82" s="12"/>
       <c r="AH82" s="12"/>
       <c r="AI82" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AJ82" s="11"/>
       <c r="AK82" s="11" t="s">
@@ -7618,11 +7630,11 @@
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -7643,11 +7655,11 @@
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
-      <c r="Y83" s="12" t="s">
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Z83" s="12"/>
-      <c r="AA83" s="12"/>
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
       <c r="AD83" s="12"/>
@@ -7656,11 +7668,11 @@
       <c r="AG83" s="12"/>
       <c r="AH83" s="12"/>
       <c r="AI83" s="12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AJ83" s="12"/>
       <c r="AK83" s="12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AL83" s="12"/>
       <c r="AM83" s="12"/>
@@ -7675,15 +7687,11 @@
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -7691,13 +7699,13 @@
         <v>22</v>
       </c>
       <c r="L84" s="10"/>
-      <c r="M84" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
+      <c r="Q84" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="R84" s="10"/>
       <c r="S84" s="10" t="s">
         <v>24</v>
@@ -7705,7 +7713,9 @@
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
+      <c r="W84" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="X84" s="10"/>
       <c r="Y84" s="10"/>
       <c r="Z84" s="10"/>
@@ -7779,38 +7789,36 @@
     <row r="86" spans="1:44" ht="20" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L86" s="11"/>
-      <c r="M86" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N86" s="11"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
+      <c r="Q86" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R86" s="11"/>
       <c r="S86" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T86" s="11"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
+      <c r="W86" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="X86" s="11"/>
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
@@ -7835,29 +7843,25 @@
     <row r="87" spans="1:44" ht="20" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L87" s="12"/>
-      <c r="M87" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="M87" s="12"/>
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
+      <c r="Q87" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="R87" s="12"/>
       <c r="S87" s="12" t="s">
         <v>34</v>
@@ -7865,7 +7869,9 @@
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
-      <c r="W87" s="12"/>
+      <c r="W87" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
@@ -7915,9 +7921,7 @@
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
       <c r="X88" s="10"/>
-      <c r="Y88" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
@@ -7933,7 +7937,9 @@
       <c r="AL88" s="10"/>
       <c r="AM88" s="10"/>
       <c r="AN88" s="10"/>
-      <c r="AO88" s="10"/>
+      <c r="AO88" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AP88" s="10"/>
       <c r="AQ88" s="1" t="s">
         <v>10</v>
@@ -8011,10 +8017,8 @@
       <c r="V90" s="12"/>
       <c r="W90" s="12"/>
       <c r="X90" s="12"/>
-      <c r="Y90" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z90" s="11"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
@@ -8029,8 +8033,10 @@
       <c r="AL90" s="12"/>
       <c r="AM90" s="12"/>
       <c r="AN90" s="12"/>
-      <c r="AO90" s="12"/>
-      <c r="AP90" s="12"/>
+      <c r="AO90" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP90" s="11"/>
       <c r="AQ90" s="1"/>
       <c r="AR90" s="4"/>
     </row>
@@ -8059,9 +8065,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
-      <c r="Y91" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
       <c r="AB91" s="12"/>
@@ -8077,7 +8081,9 @@
       <c r="AL91" s="12"/>
       <c r="AM91" s="12"/>
       <c r="AN91" s="12"/>
-      <c r="AO91" s="12"/>
+      <c r="AO91" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AP91" s="12"/>
       <c r="AQ91" s="1"/>
       <c r="AR91" s="4"/>
@@ -8416,7 +8422,7 @@
       <c r="AK98" s="12"/>
       <c r="AL98" s="12"/>
       <c r="AM98" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN98" s="11"/>
       <c r="AO98" s="12"/>
@@ -8479,17 +8485,13 @@
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
-      <c r="I100" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10" t="s">
         <v>22</v>
@@ -8499,9 +8501,7 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
       <c r="T100" s="10"/>
@@ -8517,7 +8517,9 @@
         <v>26</v>
       </c>
       <c r="AD100" s="10"/>
-      <c r="AE100" s="10"/>
+      <c r="AE100" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="AF100" s="10"/>
       <c r="AG100" s="10"/>
       <c r="AH100" s="10"/>
@@ -8527,7 +8529,9 @@
       <c r="AL100" s="10"/>
       <c r="AM100" s="10"/>
       <c r="AN100" s="10"/>
-      <c r="AO100" s="10"/>
+      <c r="AO100" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AP100" s="10"/>
       <c r="AQ100" s="1" t="s">
         <v>9</v>
@@ -8583,30 +8587,24 @@
     <row r="102" spans="1:44" ht="20" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
-      <c r="I102" s="11" t="s">
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="L102" s="11"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
       <c r="O102" s="12"/>
       <c r="P102" s="12"/>
-      <c r="Q102" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="R102" s="11"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
@@ -8618,11 +8616,13 @@
       <c r="AA102" s="12"/>
       <c r="AB102" s="12"/>
       <c r="AC102" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AD102" s="11"/>
-      <c r="AE102" s="12"/>
-      <c r="AF102" s="12"/>
+      <c r="AE102" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF102" s="11"/>
       <c r="AG102" s="12"/>
       <c r="AH102" s="12"/>
       <c r="AI102" s="12"/>
@@ -8631,37 +8631,33 @@
       <c r="AL102" s="12"/>
       <c r="AM102" s="12"/>
       <c r="AN102" s="12"/>
-      <c r="AO102" s="12"/>
-      <c r="AP102" s="12"/>
+      <c r="AO102" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP102" s="11"/>
       <c r="AQ102" s="1"/>
       <c r="AR102" s="4"/>
     </row>
     <row r="103" spans="1:44" ht="20" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
-      <c r="I103" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
-      <c r="Q103" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
@@ -8677,7 +8673,9 @@
         <v>34</v>
       </c>
       <c r="AD103" s="12"/>
-      <c r="AE103" s="12"/>
+      <c r="AE103" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="AF103" s="12"/>
       <c r="AG103" s="12"/>
       <c r="AH103" s="12"/>
@@ -8687,7 +8685,9 @@
       <c r="AL103" s="12"/>
       <c r="AM103" s="12"/>
       <c r="AN103" s="12"/>
-      <c r="AO103" s="12"/>
+      <c r="AO103" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="AP103" s="12"/>
       <c r="AQ103" s="1"/>
       <c r="AR103" s="4"/>
@@ -9158,7 +9158,8 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="C50:D51"/>
     <mergeCell ref="C64:D65"/>
@@ -9181,11 +9182,9 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C84:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D87"/>
     <mergeCell ref="C100:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D103"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="C26:D27"/>
     <mergeCell ref="C40:D41"/>
@@ -9214,8 +9213,7 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E32:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F35"/>
     <mergeCell ref="E48:F49"/>
     <mergeCell ref="E50:F51"/>
     <mergeCell ref="E64:F65"/>
@@ -9232,9 +9230,11 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E52:F53"/>
-    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E68:F69"/>
-    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
     <mergeCell ref="E84:F85"/>
     <mergeCell ref="E86:F87"/>
     <mergeCell ref="E100:F101"/>
@@ -9264,11 +9264,9 @@
     <mergeCell ref="E108:F109"/>
     <mergeCell ref="E110:F111"/>
     <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H19"/>
     <mergeCell ref="G32:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G34:H35"/>
     <mergeCell ref="G48:H49"/>
     <mergeCell ref="G50:H51"/>
     <mergeCell ref="G64:H65"/>
@@ -9289,14 +9287,14 @@
     <mergeCell ref="G70:H70"/>
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="G84:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G86:H87"/>
     <mergeCell ref="G100:H101"/>
     <mergeCell ref="G102:H103"/>
     <mergeCell ref="G24:H25"/>
     <mergeCell ref="G26:H27"/>
     <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="G56:H57"/>
     <mergeCell ref="G58:H59"/>
     <mergeCell ref="G72:H73"/>
@@ -9320,9 +9318,11 @@
     <mergeCell ref="I16:J17"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="I32:J33"/>
-    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="I48:J49"/>
-    <mergeCell ref="I50:J51"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
     <mergeCell ref="I64:J65"/>
     <mergeCell ref="I66:J67"/>
     <mergeCell ref="I80:J81"/>
@@ -9342,11 +9342,9 @@
     <mergeCell ref="I84:J85"/>
     <mergeCell ref="I86:J87"/>
     <mergeCell ref="I100:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I102:J103"/>
     <mergeCell ref="I24:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I26:J27"/>
     <mergeCell ref="I40:J41"/>
     <mergeCell ref="I42:J43"/>
     <mergeCell ref="I56:J57"/>
@@ -9370,10 +9368,10 @@
     <mergeCell ref="I108:J109"/>
     <mergeCell ref="I110:J111"/>
     <mergeCell ref="K16:L17"/>
-    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K32:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L35"/>
     <mergeCell ref="K48:L49"/>
     <mergeCell ref="K50:L51"/>
     <mergeCell ref="K64:L65"/>
@@ -9385,7 +9383,8 @@
     <mergeCell ref="K20:L21"/>
     <mergeCell ref="K22:L23"/>
     <mergeCell ref="K36:L37"/>
-    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="K52:L53"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K55:L55"/>
@@ -9399,7 +9398,8 @@
     <mergeCell ref="K102:L102"/>
     <mergeCell ref="K103:L103"/>
     <mergeCell ref="K24:L25"/>
-    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="K40:L41"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K43:L43"/>
@@ -9427,10 +9427,10 @@
     <mergeCell ref="M16:N17"/>
     <mergeCell ref="M18:N19"/>
     <mergeCell ref="M32:N33"/>
-    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
     <mergeCell ref="M48:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M50:N51"/>
     <mergeCell ref="M64:N65"/>
     <mergeCell ref="M66:N67"/>
     <mergeCell ref="M80:N81"/>
@@ -9446,8 +9446,7 @@
     <mergeCell ref="M68:N69"/>
     <mergeCell ref="M70:N71"/>
     <mergeCell ref="M84:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M86:N87"/>
     <mergeCell ref="M100:N101"/>
     <mergeCell ref="M102:N103"/>
     <mergeCell ref="M24:N25"/>
@@ -9455,7 +9454,8 @@
     <mergeCell ref="M40:N41"/>
     <mergeCell ref="M42:N43"/>
     <mergeCell ref="M56:N57"/>
-    <mergeCell ref="M58:N59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
     <mergeCell ref="M72:N73"/>
     <mergeCell ref="M74:N75"/>
     <mergeCell ref="M88:N89"/>
@@ -9528,7 +9528,8 @@
     <mergeCell ref="Q32:R33"/>
     <mergeCell ref="Q34:R35"/>
     <mergeCell ref="Q48:R49"/>
-    <mergeCell ref="Q50:R51"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
     <mergeCell ref="Q64:R65"/>
     <mergeCell ref="Q66:R67"/>
     <mergeCell ref="Q80:R81"/>
@@ -9546,10 +9547,10 @@
     <mergeCell ref="Q68:R69"/>
     <mergeCell ref="Q70:R71"/>
     <mergeCell ref="Q84:R85"/>
-    <mergeCell ref="Q86:R87"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="Q87:R87"/>
     <mergeCell ref="Q100:R101"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="Q102:R103"/>
     <mergeCell ref="Q24:R25"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="Q27:R27"/>
@@ -9580,8 +9581,7 @@
     <mergeCell ref="S32:T33"/>
     <mergeCell ref="S34:T35"/>
     <mergeCell ref="S48:T49"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S50:T51"/>
     <mergeCell ref="S64:T65"/>
     <mergeCell ref="S66:T67"/>
     <mergeCell ref="S80:T81"/>
@@ -9656,8 +9656,7 @@
     <mergeCell ref="U40:V41"/>
     <mergeCell ref="U42:V43"/>
     <mergeCell ref="U56:V57"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="U58:V59"/>
     <mergeCell ref="U72:V73"/>
     <mergeCell ref="U74:V75"/>
     <mergeCell ref="U88:V89"/>
@@ -9697,18 +9696,19 @@
     <mergeCell ref="W68:X69"/>
     <mergeCell ref="W70:X71"/>
     <mergeCell ref="W84:X85"/>
-    <mergeCell ref="W86:X87"/>
+    <mergeCell ref="W86:X86"/>
+    <mergeCell ref="W87:X87"/>
     <mergeCell ref="W100:X101"/>
     <mergeCell ref="W102:X103"/>
     <mergeCell ref="W24:X25"/>
     <mergeCell ref="W26:X27"/>
     <mergeCell ref="W40:X41"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="W42:X43"/>
     <mergeCell ref="W56:X57"/>
     <mergeCell ref="W58:X59"/>
     <mergeCell ref="W72:X73"/>
-    <mergeCell ref="W74:X75"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="W75:X75"/>
     <mergeCell ref="W88:X89"/>
     <mergeCell ref="W90:X91"/>
     <mergeCell ref="W104:X105"/>
@@ -9735,8 +9735,7 @@
     <mergeCell ref="Y66:Z66"/>
     <mergeCell ref="Y67:Z67"/>
     <mergeCell ref="Y80:Z81"/>
-    <mergeCell ref="Y82:Z82"/>
-    <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="Y82:Z83"/>
     <mergeCell ref="Y96:Z97"/>
     <mergeCell ref="Y98:Z99"/>
     <mergeCell ref="Y20:Z21"/>
@@ -9744,8 +9743,7 @@
     <mergeCell ref="Y36:Z37"/>
     <mergeCell ref="Y38:Z39"/>
     <mergeCell ref="Y52:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="Y54:Z55"/>
     <mergeCell ref="Y68:Z69"/>
     <mergeCell ref="Y70:Z71"/>
     <mergeCell ref="Y84:Z85"/>
@@ -9757,13 +9755,12 @@
     <mergeCell ref="Y40:Z41"/>
     <mergeCell ref="Y42:Z43"/>
     <mergeCell ref="Y56:Z57"/>
-    <mergeCell ref="Y58:Z59"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="Y59:Z59"/>
     <mergeCell ref="Y72:Z73"/>
-    <mergeCell ref="Y74:Z74"/>
-    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="Y74:Z75"/>
     <mergeCell ref="Y88:Z89"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="Y90:Z91"/>
     <mergeCell ref="Y104:Z105"/>
     <mergeCell ref="Y106:Z107"/>
     <mergeCell ref="Y28:Z29"/>
@@ -9787,7 +9784,8 @@
     <mergeCell ref="AA64:AB65"/>
     <mergeCell ref="AA66:AB67"/>
     <mergeCell ref="AA80:AB81"/>
-    <mergeCell ref="AA82:AB83"/>
+    <mergeCell ref="AA82:AB82"/>
+    <mergeCell ref="AA83:AB83"/>
     <mergeCell ref="AA96:AB97"/>
     <mergeCell ref="AA98:AB99"/>
     <mergeCell ref="AA20:AB21"/>
@@ -9798,7 +9796,8 @@
     <mergeCell ref="AA54:AB54"/>
     <mergeCell ref="AA55:AB55"/>
     <mergeCell ref="AA68:AB69"/>
-    <mergeCell ref="AA70:AB71"/>
+    <mergeCell ref="AA70:AB70"/>
+    <mergeCell ref="AA71:AB71"/>
     <mergeCell ref="AA84:AB85"/>
     <mergeCell ref="AA86:AB87"/>
     <mergeCell ref="AA100:AB101"/>
@@ -9806,7 +9805,8 @@
     <mergeCell ref="AA24:AB25"/>
     <mergeCell ref="AA26:AB27"/>
     <mergeCell ref="AA40:AB41"/>
-    <mergeCell ref="AA42:AB43"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="AA56:AB57"/>
     <mergeCell ref="AA58:AB59"/>
     <mergeCell ref="AA72:AB73"/>
@@ -9854,10 +9854,10 @@
     <mergeCell ref="AC102:AD102"/>
     <mergeCell ref="AC103:AD103"/>
     <mergeCell ref="AC24:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC26:AD27"/>
     <mergeCell ref="AC40:AD41"/>
-    <mergeCell ref="AC42:AD43"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AC43:AD43"/>
     <mergeCell ref="AC56:AD57"/>
     <mergeCell ref="AC58:AD59"/>
     <mergeCell ref="AC72:AD73"/>
@@ -9901,12 +9901,12 @@
     <mergeCell ref="AE84:AF85"/>
     <mergeCell ref="AE86:AF87"/>
     <mergeCell ref="AE100:AF101"/>
-    <mergeCell ref="AE102:AF103"/>
+    <mergeCell ref="AE102:AF102"/>
+    <mergeCell ref="AE103:AF103"/>
     <mergeCell ref="AE24:AF25"/>
     <mergeCell ref="AE26:AF27"/>
     <mergeCell ref="AE40:AF41"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE42:AF43"/>
     <mergeCell ref="AE56:AF57"/>
     <mergeCell ref="AE58:AF59"/>
     <mergeCell ref="AE72:AF73"/>
@@ -9982,7 +9982,8 @@
     <mergeCell ref="AI32:AJ33"/>
     <mergeCell ref="AI34:AJ35"/>
     <mergeCell ref="AI48:AJ49"/>
-    <mergeCell ref="AI50:AJ51"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AI64:AJ65"/>
     <mergeCell ref="AI66:AJ67"/>
     <mergeCell ref="AI80:AJ81"/>
@@ -9991,14 +9992,12 @@
     <mergeCell ref="AI96:AJ97"/>
     <mergeCell ref="AI98:AJ99"/>
     <mergeCell ref="AI20:AJ21"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AI22:AJ23"/>
     <mergeCell ref="AI36:AJ37"/>
     <mergeCell ref="AI38:AJ38"/>
     <mergeCell ref="AI39:AJ39"/>
     <mergeCell ref="AI52:AJ53"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AI54:AJ55"/>
     <mergeCell ref="AI68:AJ69"/>
     <mergeCell ref="AI70:AJ71"/>
     <mergeCell ref="AI84:AJ85"/>
@@ -10034,8 +10033,7 @@
     <mergeCell ref="AK32:AL33"/>
     <mergeCell ref="AK34:AL35"/>
     <mergeCell ref="AK48:AL49"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AK50:AL51"/>
     <mergeCell ref="AK64:AL65"/>
     <mergeCell ref="AK66:AL67"/>
     <mergeCell ref="AK80:AL81"/>
@@ -10044,12 +10042,14 @@
     <mergeCell ref="AK96:AL97"/>
     <mergeCell ref="AK98:AL99"/>
     <mergeCell ref="AK20:AL21"/>
-    <mergeCell ref="AK22:AL23"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AK23:AL23"/>
     <mergeCell ref="AK36:AL37"/>
     <mergeCell ref="AK38:AL38"/>
     <mergeCell ref="AK39:AL39"/>
     <mergeCell ref="AK52:AL53"/>
-    <mergeCell ref="AK54:AL55"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK55:AL55"/>
     <mergeCell ref="AK68:AL69"/>
     <mergeCell ref="AK70:AL71"/>
     <mergeCell ref="AK84:AL85"/>
@@ -10096,8 +10096,7 @@
     <mergeCell ref="AM20:AN21"/>
     <mergeCell ref="AM22:AN23"/>
     <mergeCell ref="AM36:AN37"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AM38:AN39"/>
     <mergeCell ref="AM52:AN53"/>
     <mergeCell ref="AM54:AN55"/>
     <mergeCell ref="AM68:AN69"/>
@@ -10110,11 +10109,9 @@
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="AM27:AN27"/>
     <mergeCell ref="AM40:AN41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AM42:AN43"/>
     <mergeCell ref="AM56:AN57"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="AM58:AN59"/>
     <mergeCell ref="AM72:AN73"/>
     <mergeCell ref="AM74:AN75"/>
     <mergeCell ref="AM88:AN89"/>
@@ -10148,7 +10145,8 @@
     <mergeCell ref="AO20:AP21"/>
     <mergeCell ref="AO22:AP23"/>
     <mergeCell ref="AO36:AP37"/>
-    <mergeCell ref="AO38:AP39"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="AO39:AP39"/>
     <mergeCell ref="AO52:AP53"/>
     <mergeCell ref="AO54:AP55"/>
     <mergeCell ref="AO68:AP69"/>
@@ -10156,19 +10154,21 @@
     <mergeCell ref="AO84:AP85"/>
     <mergeCell ref="AO86:AP87"/>
     <mergeCell ref="AO100:AP101"/>
-    <mergeCell ref="AO102:AP103"/>
+    <mergeCell ref="AO102:AP102"/>
+    <mergeCell ref="AO103:AP103"/>
     <mergeCell ref="AO24:AP25"/>
-    <mergeCell ref="AO26:AP27"/>
+    <mergeCell ref="AO26:AP26"/>
+    <mergeCell ref="AO27:AP27"/>
     <mergeCell ref="AO40:AP41"/>
     <mergeCell ref="AO42:AP43"/>
     <mergeCell ref="AO56:AP57"/>
     <mergeCell ref="AO58:AP58"/>
     <mergeCell ref="AO59:AP59"/>
     <mergeCell ref="AO72:AP73"/>
-    <mergeCell ref="AO74:AP74"/>
-    <mergeCell ref="AO75:AP75"/>
+    <mergeCell ref="AO74:AP75"/>
     <mergeCell ref="AO88:AP89"/>
-    <mergeCell ref="AO90:AP91"/>
+    <mergeCell ref="AO90:AP90"/>
+    <mergeCell ref="AO91:AP91"/>
     <mergeCell ref="AO104:AP105"/>
     <mergeCell ref="AO106:AP107"/>
     <mergeCell ref="AO28:AP29"/>
